--- a/PhaseResults/m4_PhaseOne.xlsx
+++ b/PhaseResults/m4_PhaseOne.xlsx
@@ -425,16 +425,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.251763445461336</v>
+        <v>-0.8058359140996063</v>
       </c>
       <c r="C2">
-        <v>-0.5249761774116319</v>
+        <v>1.477079368270846</v>
       </c>
       <c r="D2">
-        <v>0.1238272365913513</v>
+        <v>-1.098046225981444</v>
       </c>
       <c r="E2">
-        <v>-1.702333435821776</v>
+        <v>-1.987949236464791</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -442,16 +442,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-1.246750249545893</v>
+        <v>1.847923398368849</v>
       </c>
       <c r="C3">
-        <v>1.169005793839387</v>
+        <v>-1.169580167177209</v>
       </c>
       <c r="D3">
-        <v>1.328561202097952</v>
+        <v>-1.570192888131569</v>
       </c>
       <c r="E3">
-        <v>1.896291704684273</v>
+        <v>-0.8444272057663356</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -459,16 +459,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-0.5994639414235761</v>
+        <v>-0.7153988773757751</v>
       </c>
       <c r="C4">
-        <v>-0.941244220285268</v>
+        <v>1.658907595347753</v>
       </c>
       <c r="D4">
-        <v>-0.329897515227467</v>
+        <v>0.288541311044439</v>
       </c>
       <c r="E4">
-        <v>-1.927533665657455</v>
+        <v>1.294412646599783</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -476,16 +476,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1.451851897741602</v>
+        <v>1.407790556489143</v>
       </c>
       <c r="C5">
-        <v>-1.648379782780728</v>
+        <v>0.06227551850797131</v>
       </c>
       <c r="D5">
-        <v>1.82693234038991</v>
+        <v>-1.913849567263313</v>
       </c>
       <c r="E5">
-        <v>0.119878007934719</v>
+        <v>1.3475323150688</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -493,16 +493,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-1.817812384941462</v>
+        <v>-1.924594844292447</v>
       </c>
       <c r="C6">
-        <v>0.05804038061252248</v>
+        <v>1.745126190979479</v>
       </c>
       <c r="D6">
-        <v>-1.498159211835881</v>
+        <v>-0.331882922922049</v>
       </c>
       <c r="E6">
-        <v>-1.65947334326807</v>
+        <v>-0.8081698521181211</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -510,16 +510,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-1.998131847878269</v>
+        <v>1.186764589413904</v>
       </c>
       <c r="C7">
-        <v>-1.854633155717088</v>
+        <v>-1.302741160472336</v>
       </c>
       <c r="D7">
-        <v>-0.4995875496788753</v>
+        <v>-1.269640135534642</v>
       </c>
       <c r="E7">
-        <v>-0.7887786236182381</v>
+        <v>-1.542207301921749</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -527,16 +527,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.3506366289912042</v>
+        <v>-0.4503262495380838</v>
       </c>
       <c r="C8">
-        <v>-0.8831532902611254</v>
+        <v>-0.8920668578846633</v>
       </c>
       <c r="D8">
-        <v>1.914894224469311</v>
+        <v>-1.745426410301766</v>
       </c>
       <c r="E8">
-        <v>-1.899345641975674</v>
+        <v>1.973151760180299</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -544,16 +544,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.7257307377488149</v>
+        <v>-0.8754408538818552</v>
       </c>
       <c r="C9">
-        <v>1.361298136500547</v>
+        <v>1.360473970173114</v>
       </c>
       <c r="D9">
-        <v>0.8573131546834771</v>
+        <v>0.4111161267366548</v>
       </c>
       <c r="E9">
-        <v>-0.5652901121015423</v>
+        <v>-0.7137636663214746</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -561,16 +561,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1.742867643676312</v>
+        <v>1.767525313898379</v>
       </c>
       <c r="C10">
-        <v>-1.533802021364484</v>
+        <v>1.101806483760276</v>
       </c>
       <c r="D10">
-        <v>1.704238508129678</v>
+        <v>-0.1495660280247446</v>
       </c>
       <c r="E10">
-        <v>-0.2220452921129579</v>
+        <v>-1.692674959470339</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -578,16 +578,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-0.3441964811551999</v>
+        <v>-0.2321505825354646</v>
       </c>
       <c r="C11">
-        <v>-1.903470727515017</v>
+        <v>-0.570103861740999</v>
       </c>
       <c r="D11">
-        <v>1.533003193315916</v>
+        <v>0.4600967293565934</v>
       </c>
       <c r="E11">
-        <v>-0.1898088625946579</v>
+        <v>-1.639113654501418</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -595,16 +595,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.2354624501774061</v>
+        <v>-0.1086439186697188</v>
       </c>
       <c r="C12">
-        <v>-0.6727720072715104</v>
+        <v>1.176633979768706</v>
       </c>
       <c r="D12">
-        <v>-1.0213160077187</v>
+        <v>-0.6351031829754936</v>
       </c>
       <c r="E12">
-        <v>1.270747201400157</v>
+        <v>-1.018448415777272</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -612,16 +612,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1.019401380617224</v>
+        <v>0.5775071228806117</v>
       </c>
       <c r="C13">
-        <v>1.706796434361223</v>
+        <v>0.5068218019970399</v>
       </c>
       <c r="D13">
-        <v>0.5757625027677271</v>
+        <v>-1.303565996213299</v>
       </c>
       <c r="E13">
-        <v>1.950664164950407</v>
+        <v>-0.4828210101950317</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -629,16 +629,16 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-0.9513530763682276</v>
+        <v>-1.8293165178098</v>
       </c>
       <c r="C14">
-        <v>0.8813773642541047</v>
+        <v>1.419375640526009</v>
       </c>
       <c r="D14">
-        <v>-0.8294006594090491</v>
+        <v>1.256687607419507</v>
       </c>
       <c r="E14">
-        <v>-1.283969765304655</v>
+        <v>0.4399717550787861</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -646,16 +646,16 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.469548705034859</v>
+        <v>-1.740529285290008</v>
       </c>
       <c r="C15">
-        <v>-0.8691388670716602</v>
+        <v>-0.875937782242576</v>
       </c>
       <c r="D15">
-        <v>1.088230191009552</v>
+        <v>-1.785388719450443</v>
       </c>
       <c r="E15">
-        <v>0.8422309730537911</v>
+        <v>1.755946006424243</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -663,16 +663,16 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-1.65688553549789</v>
+        <v>-0.1425357083319954</v>
       </c>
       <c r="C16">
-        <v>0.7988532039828891</v>
+        <v>-1.457904114477685</v>
       </c>
       <c r="D16">
-        <v>1.964319486004026</v>
+        <v>0.6108588652807789</v>
       </c>
       <c r="E16">
-        <v>1.147981804652588</v>
+        <v>0.6174199413119084</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -680,16 +680,16 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1.089913429262546</v>
+        <v>1.544912295794613</v>
       </c>
       <c r="C17">
-        <v>0.1755788408350778</v>
+        <v>1.512076733010699</v>
       </c>
       <c r="D17">
-        <v>0.3343346629043715</v>
+        <v>-0.4050575383021382</v>
       </c>
       <c r="E17">
-        <v>1.646004191571622</v>
+        <v>1.532709995753509</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -697,16 +697,16 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1.877049432960657</v>
+        <v>-0.6433970046019519</v>
       </c>
       <c r="C18">
-        <v>-0.0453140346247114</v>
+        <v>-0.7616181374878477</v>
       </c>
       <c r="D18">
-        <v>-1.636772563426313</v>
+        <v>0.8604019339048006</v>
       </c>
       <c r="E18">
-        <v>-1.164786709441538</v>
+        <v>1.848922505396178</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -714,16 +714,16 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1.357066471634497</v>
+        <v>0.7065799905432026</v>
       </c>
       <c r="C19">
-        <v>1.933398811629175</v>
+        <v>-0.4627780455198596</v>
       </c>
       <c r="D19">
-        <v>-1.571586754846853</v>
+        <v>1.301177413002297</v>
       </c>
       <c r="E19">
-        <v>-1.213558156894459</v>
+        <v>0.7558072736687058</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -731,16 +731,16 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.8315401075920277</v>
+        <v>-1.636730481267568</v>
       </c>
       <c r="C20">
-        <v>-1.758579607924766</v>
+        <v>0.09566037225492074</v>
       </c>
       <c r="D20">
-        <v>1.871880175862459</v>
+        <v>-1.131681294188561</v>
       </c>
       <c r="E20">
-        <v>1.790143239671512</v>
+        <v>-1.240962760446843</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -748,16 +748,16 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>-1.205013995268933</v>
+        <v>0.008701764100430331</v>
       </c>
       <c r="C21">
-        <v>-0.3076176726065905</v>
+        <v>-1.678718062304229</v>
       </c>
       <c r="D21">
-        <v>-1.111327833054195</v>
+        <v>-1.870744075946808</v>
       </c>
       <c r="E21">
-        <v>1.439242734721153</v>
+        <v>-1.921432476727991</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -765,16 +765,16 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>1.976489918743487</v>
+        <v>-0.9520170797448562</v>
       </c>
       <c r="C22">
-        <v>0.6802042034604612</v>
+        <v>-0.1321553845635137</v>
       </c>
       <c r="D22">
-        <v>0.427030296975766</v>
+        <v>-0.7709853727808236</v>
       </c>
       <c r="E22">
-        <v>-0.7455653671227878</v>
+        <v>1.198129965715523</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -782,16 +782,16 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>-1.860820402911596</v>
+        <v>-0.2769232882589809</v>
       </c>
       <c r="C23">
-        <v>0.1031462189130927</v>
+        <v>-0.9349176513461808</v>
       </c>
       <c r="D23">
-        <v>0.8129032545249424</v>
+        <v>-1.207110852948135</v>
       </c>
       <c r="E23">
-        <v>-0.54693424820845</v>
+        <v>0.193971939386838</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -799,16 +799,16 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1.405324628647335</v>
+        <v>1.28434754533154</v>
       </c>
       <c r="C24">
-        <v>0.2505906321249669</v>
+        <v>1.953505129649788</v>
       </c>
       <c r="D24">
-        <v>-1.948245010160296</v>
+        <v>1.354663440221498</v>
       </c>
       <c r="E24">
-        <v>0.7524343492394716</v>
+        <v>1.421883477075751</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -816,16 +816,16 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0.05932448017055414</v>
+        <v>-0.4971360833311735</v>
       </c>
       <c r="C25">
-        <v>-1.3997174735758</v>
+        <v>1.337376224083199</v>
       </c>
       <c r="D25">
-        <v>-0.6087203822410816</v>
+        <v>-1.403633795875477</v>
       </c>
       <c r="E25">
-        <v>1.682518968246011</v>
+        <v>-1.175607118941449</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -833,16 +833,16 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0.406700093666466</v>
+        <v>-0.6163799349004144</v>
       </c>
       <c r="C26">
-        <v>-1.087369998567682</v>
+        <v>-1.052999246467663</v>
       </c>
       <c r="D26">
-        <v>-1.459172246070459</v>
+        <v>1.125932470884845</v>
       </c>
       <c r="E26">
-        <v>0.9963652243712797</v>
+        <v>0.3777713158407852</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -850,16 +850,16 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>-0.6290821788779175</v>
+        <v>-0.5307320830933719</v>
       </c>
       <c r="C27">
-        <v>1.35752075275993</v>
+        <v>-1.417852201440257</v>
       </c>
       <c r="D27">
-        <v>-1.291086541721149</v>
+        <v>0.2162672493667328</v>
       </c>
       <c r="E27">
-        <v>-0.3202526619568591</v>
+        <v>-1.306742012696025</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -867,16 +867,16 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1.31266767964183</v>
+        <v>-0.352054911594391</v>
       </c>
       <c r="C28">
-        <v>1.236777184162822</v>
+        <v>0.7815408847023604</v>
       </c>
       <c r="D28">
-        <v>-0.3787672274766842</v>
+        <v>-0.4500861918092851</v>
       </c>
       <c r="E28">
-        <v>0.479740927315822</v>
+        <v>0.8988809271980212</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -884,16 +884,16 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0.6592111550861612</v>
+        <v>-1.162126038694441</v>
       </c>
       <c r="C29">
-        <v>-0.4604183291574455</v>
+        <v>0.4742440092732121</v>
       </c>
       <c r="D29">
-        <v>1.286331531758838</v>
+        <v>0.9837777542705863</v>
       </c>
       <c r="E29">
-        <v>-1.335172266287271</v>
+        <v>-1.451611536413955</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -901,16 +901,16 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0.8541138175809784</v>
+        <v>0.4392964514170909</v>
       </c>
       <c r="C30">
-        <v>-0.835017570494254</v>
+        <v>-1.223573869086662</v>
       </c>
       <c r="D30">
-        <v>-1.330268270114121</v>
+        <v>0.1341108175978332</v>
       </c>
       <c r="E30">
-        <v>0.1341265273218948</v>
+        <v>1.672508139521793</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -918,16 +918,16 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0.888195851101452</v>
+        <v>-1.542186355096089</v>
       </c>
       <c r="C31">
-        <v>-1.004201105449003</v>
+        <v>-1.701108262519899</v>
       </c>
       <c r="D31">
-        <v>-1.689976452768684</v>
+        <v>-1.969094608832974</v>
       </c>
       <c r="E31">
-        <v>1.574329305237796</v>
+        <v>1.36011494445126</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -935,16 +935,16 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>1.146119164335449</v>
+        <v>-0.4270017361801681</v>
       </c>
       <c r="C32">
-        <v>0.6315408140949113</v>
+        <v>0.4147013309023393</v>
       </c>
       <c r="D32">
-        <v>0.7645228009909029</v>
+        <v>0.8240725206008581</v>
       </c>
       <c r="E32">
-        <v>-1.849240109371875</v>
+        <v>1.940977207278203</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -952,16 +952,16 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>-1.609225220116512</v>
+        <v>1.887922525466315</v>
       </c>
       <c r="C33">
-        <v>0.4350856938949383</v>
+        <v>0.001808563684787767</v>
       </c>
       <c r="D33">
-        <v>-1.049386598045523</v>
+        <v>-0.5651822569183906</v>
       </c>
       <c r="E33">
-        <v>-0.6852702862475122</v>
+        <v>0.3045033179506218</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -969,16 +969,16 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>-0.9866261359563795</v>
+        <v>0.3578774156327085</v>
       </c>
       <c r="C34">
-        <v>-0.3221366041421621</v>
+        <v>-0.5026938162181327</v>
       </c>
       <c r="D34">
-        <v>-1.184635348473353</v>
+        <v>0.06122771458219312</v>
       </c>
       <c r="E34">
-        <v>0.2567515270411507</v>
+        <v>0.1396323898646168</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -986,16 +986,16 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>-0.007902388422367679</v>
+        <v>-1.073805652108569</v>
       </c>
       <c r="C35">
-        <v>0.441294717501918</v>
+        <v>1.034558611191987</v>
       </c>
       <c r="D35">
-        <v>-0.8516556021995789</v>
+        <v>1.502171981728878</v>
       </c>
       <c r="E35">
-        <v>1.325677203267953</v>
+        <v>0.8041584746823891</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1003,16 +1003,16 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>-0.534900382859451</v>
+        <v>0.3890331918063996</v>
       </c>
       <c r="C36">
-        <v>-0.002622371555071723</v>
+        <v>1.980658151673694</v>
       </c>
       <c r="D36">
-        <v>-0.2755605453832166</v>
+        <v>0.4982875334585</v>
       </c>
       <c r="E36">
-        <v>1.293470144789489</v>
+        <v>-0.993170253252289</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1020,16 +1020,16 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>-0.7626734837976157</v>
+        <v>-1.413883247611496</v>
       </c>
       <c r="C37">
-        <v>-1.572314499467376</v>
+        <v>-1.278535957664889</v>
       </c>
       <c r="D37">
-        <v>0.5270070123441535</v>
+        <v>1.37426046700311</v>
       </c>
       <c r="E37">
-        <v>-0.946752568732419</v>
+        <v>-0.3949777442519027</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1037,16 +1037,16 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>0.9537324852958102</v>
+        <v>-1.695676758637569</v>
       </c>
       <c r="C38">
-        <v>1.999575912219261</v>
+        <v>-1.629728052556473</v>
       </c>
       <c r="D38">
-        <v>0.9173624382599637</v>
+        <v>-1.801092906674644</v>
       </c>
       <c r="E38">
-        <v>-1.515126997006563</v>
+        <v>0.2236953663723322</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1054,16 +1054,16 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>1.697817106570318</v>
+        <v>1.012341711352633</v>
       </c>
       <c r="C39">
-        <v>-0.2714885710601325</v>
+        <v>0.1489232007132562</v>
       </c>
       <c r="D39">
-        <v>0.07615303969188991</v>
+        <v>1.86791130627176</v>
       </c>
       <c r="E39">
-        <v>-1.47367850995513</v>
+        <v>-0.6530851540645441</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1071,16 +1071,16 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>0.02181940531704907</v>
+        <v>-0.3636615415901658</v>
       </c>
       <c r="C40">
-        <v>1.761006485038629</v>
+        <v>-0.3599698571873853</v>
       </c>
       <c r="D40">
-        <v>-0.197605447401505</v>
+        <v>-0.3083496929516998</v>
       </c>
       <c r="E40">
-        <v>-1.616888218968226</v>
+        <v>0.08348853270837031</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1088,16 +1088,16 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>-0.4595074940074384</v>
+        <v>0.8703964381228366</v>
       </c>
       <c r="C41">
-        <v>1.725456180528786</v>
+        <v>0.7040910487935337</v>
       </c>
       <c r="D41">
-        <v>0.9729446495565135</v>
+        <v>-0.3947333488908169</v>
       </c>
       <c r="E41">
-        <v>-0.8306661003391844</v>
+        <v>-0.8932278747492548</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1105,16 +1105,16 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>-0.2643004251379975</v>
+        <v>0.3064371596548328</v>
       </c>
       <c r="C42">
-        <v>-0.9699176115201344</v>
+        <v>-1.545313327719708</v>
       </c>
       <c r="D42">
-        <v>-1.41421514922342</v>
+        <v>0.7718458235970154</v>
       </c>
       <c r="E42">
-        <v>-0.8985986705026912</v>
+        <v>-1.358943865009898</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1122,16 +1122,16 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>-0.7434520682826296</v>
+        <v>-1.514970177939996</v>
       </c>
       <c r="C43">
-        <v>-1.935761490155826</v>
+        <v>-0.7247379850122699</v>
       </c>
       <c r="D43">
-        <v>-1.965377815213232</v>
+        <v>-0.06297863147298055</v>
       </c>
       <c r="E43">
-        <v>0.9555424572552234</v>
+        <v>-1.785515068868442</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1139,16 +1139,16 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>1.650990422431868</v>
+        <v>-1.016343837028351</v>
       </c>
       <c r="C44">
-        <v>1.464659936624928</v>
+        <v>-0.02292496672283217</v>
       </c>
       <c r="D44">
-        <v>-0.7574288912091607</v>
+        <v>-0.7551312358886744</v>
       </c>
       <c r="E44">
-        <v>1.751887547362506</v>
+        <v>0.255535537981201</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1156,16 +1156,16 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>-1.114891648868364</v>
+        <v>-0.7903394188018507</v>
       </c>
       <c r="C45">
-        <v>1.625617174267498</v>
+        <v>-0.04376120876535738</v>
       </c>
       <c r="D45">
-        <v>1.728498962289836</v>
+        <v>0.01716973390931109</v>
       </c>
       <c r="E45">
-        <v>-1.532281430347973</v>
+        <v>-0.3427511922133943</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1173,16 +1173,16 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>1.551915263502593</v>
+        <v>-1.655844567142464</v>
       </c>
       <c r="C46">
-        <v>-1.834066965209625</v>
+        <v>-0.1867291654195773</v>
       </c>
       <c r="D46">
-        <v>-0.7998023453059964</v>
+        <v>-1.694056943096699</v>
       </c>
       <c r="E46">
-        <v>0.5735781279972674</v>
+        <v>-1.853824723194529</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1190,16 +1190,16 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>-0.1172056597561388</v>
+        <v>1.564713439279232</v>
       </c>
       <c r="C47">
-        <v>-0.6361459025056013</v>
+        <v>0.9409183399519363</v>
       </c>
       <c r="D47">
-        <v>-1.201509565114863</v>
+        <v>-0.02903019921161354</v>
       </c>
       <c r="E47">
-        <v>-1.127811707240009</v>
+        <v>0.01840210544833409</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1207,16 +1207,16 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>-0.1233662917284157</v>
+        <v>-0.5805247880294939</v>
       </c>
       <c r="C48">
-        <v>-0.3717983883156135</v>
+        <v>1.220271398492892</v>
       </c>
       <c r="D48">
-        <v>-0.2016584505255952</v>
+        <v>-1.546547428268539</v>
       </c>
       <c r="E48">
-        <v>0.6122402791943853</v>
+        <v>-0.1153274388387686</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1224,16 +1224,16 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>1.209135873012396</v>
+        <v>1.085556725399753</v>
       </c>
       <c r="C49">
-        <v>0.8161973461204495</v>
+        <v>1.695938900920863</v>
       </c>
       <c r="D49">
-        <v>1.457068419224034</v>
+        <v>1.088179813932475</v>
       </c>
       <c r="E49">
-        <v>1.44476355559322</v>
+        <v>0.3349303164989101</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1241,16 +1241,16 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>-0.9052954403654152</v>
+        <v>1.360027162277137</v>
       </c>
       <c r="C50">
-        <v>0.5999679209566762</v>
+        <v>-1.87099314763774</v>
       </c>
       <c r="D50">
-        <v>0.4847498305081701</v>
+        <v>0.399267086134492</v>
       </c>
       <c r="E50">
-        <v>-1.252822519632435</v>
+        <v>-0.5756743636112773</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1258,16 +1258,16 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>0.3824656567745044</v>
+        <v>0.159217211237257</v>
       </c>
       <c r="C51">
-        <v>-0.7946797788827988</v>
+        <v>-0.9959685346430256</v>
       </c>
       <c r="D51">
-        <v>1.618390209362505</v>
+        <v>1.895837648969985</v>
       </c>
       <c r="E51">
-        <v>-0.04700215767105953</v>
+        <v>-0.06186399252855779</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1275,16 +1275,16 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>-1.289227414290869</v>
+        <v>0.8310548737116523</v>
       </c>
       <c r="C52">
-        <v>-1.438013513406278</v>
+        <v>0.6686596903341426</v>
       </c>
       <c r="D52">
-        <v>-0.09192261246400446</v>
+        <v>-0.8490861642704297</v>
       </c>
       <c r="E52">
-        <v>-1.722061137840058</v>
+        <v>-0.1411589974405458</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1292,16 +1292,16 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>0.7123426840891689</v>
+        <v>1.62904330325373</v>
       </c>
       <c r="C53">
-        <v>-1.61714418858655</v>
+        <v>-1.382368174785678</v>
       </c>
       <c r="D53">
-        <v>-1.806642880078478</v>
+        <v>1.746721440724365</v>
       </c>
       <c r="E53">
-        <v>-0.1149481909215169</v>
+        <v>-1.374326230180654</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1309,16 +1309,16 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>0.6123157553424026</v>
+        <v>-0.003371618343386507</v>
       </c>
       <c r="C54">
-        <v>0.5224183249718255</v>
+        <v>-1.812470480942372</v>
       </c>
       <c r="D54">
-        <v>-0.653024747079765</v>
+        <v>1.810617789661849</v>
       </c>
       <c r="E54">
-        <v>-1.404350620648412</v>
+        <v>1.509114027747464</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1326,16 +1326,16 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>-1.884638024168219</v>
+        <v>0.6444324722503638</v>
       </c>
       <c r="C55">
-        <v>-1.348389435201168</v>
+        <v>1.887197463508915</v>
       </c>
       <c r="D55">
-        <v>0.299333979773817</v>
+        <v>-0.8268686344127381</v>
       </c>
       <c r="E55">
-        <v>1.549148493880628</v>
+        <v>1.250606076294574</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1343,16 +1343,16 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>-0.288105633456808</v>
+        <v>-0.7421831883863843</v>
       </c>
       <c r="C56">
-        <v>-0.2132322152242963</v>
+        <v>0.8064750652142534</v>
       </c>
       <c r="D56">
-        <v>-0.963459323278141</v>
+        <v>-1.022537334574681</v>
       </c>
       <c r="E56">
-        <v>-0.9798068191722202</v>
+        <v>0.7168447080867923</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1360,16 +1360,16 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>0.9999206787269195</v>
+        <v>-1.911644155187521</v>
       </c>
       <c r="C57">
-        <v>1.803969596519406</v>
+        <v>1.293573720274809</v>
       </c>
       <c r="D57">
-        <v>0.2520759439581819</v>
+        <v>1.0126826149607</v>
       </c>
       <c r="E57">
-        <v>1.865541364548686</v>
+        <v>-0.2459932417759134</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1377,16 +1377,16 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>0.288537142158857</v>
+        <v>-1.142328321220429</v>
       </c>
       <c r="C58">
-        <v>-0.1888115580793215</v>
+        <v>1.637912302004233</v>
       </c>
       <c r="D58">
-        <v>0.1956073232816409</v>
+        <v>-1.186676969009451</v>
       </c>
       <c r="E58">
-        <v>-1.01714007460956</v>
+        <v>1.454508539943244</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1394,16 +1394,16 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>-1.778500178907122</v>
+        <v>0.2709218732954009</v>
       </c>
       <c r="C59">
-        <v>1.910523626594072</v>
+        <v>0.8653897688948189</v>
       </c>
       <c r="D59">
-        <v>-1.528907303307544</v>
+        <v>-0.5411793667744969</v>
       </c>
       <c r="E59">
-        <v>-1.041439977213496</v>
+        <v>-1.211998332950635</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1411,16 +1411,16 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>0.2570775044183806</v>
+        <v>0.6243913109180612</v>
       </c>
       <c r="C60">
-        <v>0.02075861157037595</v>
+        <v>-0.4169457174131594</v>
       </c>
       <c r="D60">
-        <v>-1.742524651564273</v>
+        <v>-1.931806468667927</v>
       </c>
       <c r="E60">
-        <v>0.5175886460854091</v>
+        <v>0.04232216543467793</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1428,16 +1428,16 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>-0.4812570140536239</v>
+        <v>0.9766047726676748</v>
       </c>
       <c r="C61">
-        <v>1.067095122165743</v>
+        <v>-0.2770035359137091</v>
       </c>
       <c r="D61">
-        <v>1.043915563622367</v>
+        <v>-1.519813229689142</v>
       </c>
       <c r="E61">
-        <v>-1.080361874907176</v>
+        <v>1.799746318101629</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1445,16 +1445,16 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>-0.1864140491869997</v>
+        <v>1.356666156648205</v>
       </c>
       <c r="C62">
-        <v>0.1293033859239578</v>
+        <v>-0.1002243606521438</v>
       </c>
       <c r="D62">
-        <v>0.6683887024907382</v>
+        <v>0.950117089619797</v>
       </c>
       <c r="E62">
-        <v>-0.6519621514639047</v>
+        <v>0.6685349753356</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1462,16 +1462,16 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>0.5103790141098044</v>
+        <v>1.120038198512087</v>
       </c>
       <c r="C63">
-        <v>0.3525258375120801</v>
+        <v>1.525227882602142</v>
       </c>
       <c r="D63">
-        <v>-0.1279936759716727</v>
+        <v>0.6528741453988021</v>
       </c>
       <c r="E63">
-        <v>-1.7632398408742</v>
+        <v>0.5422445142683081</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1479,16 +1479,16 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>-0.8012527731093566</v>
+        <v>-0.2968747967004861</v>
       </c>
       <c r="C64">
-        <v>1.859767900550744</v>
+        <v>-1.109673891164824</v>
       </c>
       <c r="D64">
-        <v>0.3866593712087552</v>
+        <v>0.3537453697636104</v>
       </c>
       <c r="E64">
-        <v>0.2892064556793708</v>
+        <v>-0.7448613241098814</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1496,16 +1496,16 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>0.5726201382098348</v>
+        <v>1.988748131496957</v>
       </c>
       <c r="C65">
-        <v>-1.20096130071511</v>
+        <v>0.228203165057081</v>
       </c>
       <c r="D65">
-        <v>1.428719027572585</v>
+        <v>-0.667910148196404</v>
       </c>
       <c r="E65">
-        <v>0.6527607888261326</v>
+        <v>-0.2084378208172617</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1513,16 +1513,16 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>-1.132228958921107</v>
+        <v>1.515896127382908</v>
       </c>
       <c r="C66">
-        <v>0.6532790132016868</v>
+        <v>0.5683253228753373</v>
       </c>
       <c r="D66">
-        <v>-0.8833782319850589</v>
+        <v>0.9193671677883999</v>
       </c>
       <c r="E66">
-        <v>1.51819162970643</v>
+        <v>-1.132956331375989</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1530,16 +1530,16 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>1.49294127209561</v>
+        <v>-1.332083968295676</v>
       </c>
       <c r="C67">
-        <v>1.64743342142618</v>
+        <v>-0.5587454056228685</v>
       </c>
       <c r="D67">
-        <v>-0.5455603003358274</v>
+        <v>1.768370011573556</v>
       </c>
       <c r="E67">
-        <v>1.600311528245927</v>
+        <v>-1.661965564732155</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1547,16 +1547,16 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>-1.925617276776101</v>
+        <v>-1.31550400271011</v>
       </c>
       <c r="C68">
-        <v>1.133990938810791</v>
+        <v>-0.6729584094491727</v>
       </c>
       <c r="D68">
-        <v>1.128483745390454</v>
+        <v>-0.1731138292746091</v>
       </c>
       <c r="E68">
-        <v>1.364965762497402</v>
+        <v>-1.430476770660355</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1564,16 +1564,16 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>0.1129905057134009</v>
+        <v>0.9287265001747729</v>
       </c>
       <c r="C69">
-        <v>-1.966367072043614</v>
+        <v>-1.908090045854704</v>
       </c>
       <c r="D69">
-        <v>-1.86715725352611</v>
+        <v>0.2516610929019905</v>
       </c>
       <c r="E69">
-        <v>-0.3872026621716709</v>
+        <v>1.227235864153579</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1581,16 +1581,16 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>-1.07857590976463</v>
+        <v>-0.1824748149991271</v>
       </c>
       <c r="C70">
-        <v>0.748996486454705</v>
+        <v>-0.2150165182409431</v>
       </c>
       <c r="D70">
-        <v>-0.5864370544989201</v>
+        <v>-1.612414590431756</v>
       </c>
       <c r="E70">
-        <v>0.6929715354190988</v>
+        <v>-0.5430970845741583</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1598,16 +1598,16 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>-0.436847421856231</v>
+        <v>-0.9827942227844573</v>
       </c>
       <c r="C71">
-        <v>-1.13793301171248</v>
+        <v>-1.024847188668961</v>
       </c>
       <c r="D71">
-        <v>0.7080605255259758</v>
+        <v>-0.9355484403834118</v>
       </c>
       <c r="E71">
-        <v>-0.8565701997013442</v>
+        <v>-0.3054971954618637</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1615,16 +1615,16 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>1.571044790412564</v>
+        <v>-1.599454452774869</v>
       </c>
       <c r="C72">
-        <v>-1.263580539977989</v>
+        <v>0.6383923301483945</v>
       </c>
       <c r="D72">
-        <v>1.924442200354225</v>
+        <v>-0.5119627928296961</v>
       </c>
       <c r="E72">
-        <v>-1.803054755008642</v>
+        <v>-0.4323311508306347</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1632,16 +1632,16 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>-0.3858719188543345</v>
+        <v>0.5443317683385125</v>
       </c>
       <c r="C73">
-        <v>1.588452671518129</v>
+        <v>1.789562681948884</v>
       </c>
       <c r="D73">
-        <v>-1.891983271205842</v>
+        <v>-1.325845653324865</v>
       </c>
       <c r="E73">
-        <v>-0.25707243536137</v>
+        <v>0.4656710952294074</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1649,16 +1649,16 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>-1.442014742597214</v>
+        <v>-1.236113897472037</v>
       </c>
       <c r="C74">
-        <v>0.3944786010374872</v>
+        <v>-1.922767258464776</v>
       </c>
       <c r="D74">
-        <v>1.651378586998794</v>
+        <v>1.971874976358135</v>
       </c>
       <c r="E74">
-        <v>-0.006329134246173096</v>
+        <v>-1.831492714817028</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1666,16 +1666,16 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>-1.506462323811496</v>
+        <v>-1.469611940034627</v>
       </c>
       <c r="C75">
-        <v>-0.5612411453271335</v>
+        <v>0.9017877235241905</v>
       </c>
       <c r="D75">
-        <v>-0.05711631965294939</v>
+        <v>0.7566475795356018</v>
       </c>
       <c r="E75">
-        <v>-0.4252832822007315</v>
+        <v>-0.01278018778117751</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1683,16 +1683,16 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>1.768278265826279</v>
+        <v>1.947715934304492</v>
       </c>
       <c r="C76">
-        <v>-1.779295267134709</v>
+        <v>1.067349655266396</v>
       </c>
       <c r="D76">
-        <v>-1.156062978853423</v>
+        <v>-1.442211993372309</v>
       </c>
       <c r="E76">
-        <v>0.3550300198485741</v>
+        <v>0.78367184964406</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1700,16 +1700,16 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>1.394978548062958</v>
+        <v>1.467098207814124</v>
       </c>
       <c r="C77">
-        <v>-0.4006293315273026</v>
+        <v>0.2892650128644565</v>
       </c>
       <c r="D77">
-        <v>-0.9597389781710046</v>
+        <v>1.709837159771601</v>
       </c>
       <c r="E77">
-        <v>-0.6103364387951782</v>
+        <v>0.9520011820428369</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1717,16 +1717,16 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>1.911118959860019</v>
+        <v>0.7927274845000563</v>
       </c>
       <c r="C78">
-        <v>-0.1593279129557146</v>
+        <v>-1.324838884042288</v>
       </c>
       <c r="D78">
-        <v>1.269880111458075</v>
+        <v>-0.7077263909663822</v>
       </c>
       <c r="E78">
-        <v>1.060302971694704</v>
+        <v>1.073934080018848</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1734,16 +1734,16 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>1.825413170088511</v>
+        <v>1.743342531013027</v>
       </c>
       <c r="C79">
-        <v>-0.7009623359345056</v>
+        <v>-0.3842342489975772</v>
       </c>
       <c r="D79">
-        <v>1.397967885836202</v>
+        <v>1.958344036009811</v>
       </c>
       <c r="E79">
-        <v>-1.377294013271453</v>
+        <v>0.5975299421062088</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1751,16 +1751,16 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>-1.716722520419483</v>
+        <v>0.4474241361541234</v>
       </c>
       <c r="C80">
-        <v>0.4887892787041928</v>
+        <v>0.3318344145499545</v>
       </c>
       <c r="D80">
-        <v>0.2262681752824842</v>
+        <v>-0.08731168305943671</v>
       </c>
       <c r="E80">
-        <v>-1.562079222581749</v>
+        <v>1.581732451472257</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1768,16 +1768,16 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>-0.23670593110327</v>
+        <v>0.1111413625670954</v>
       </c>
       <c r="C81">
-        <v>0.9737115620642101</v>
+        <v>0.3655733270794324</v>
       </c>
       <c r="D81">
-        <v>1.224399777989237</v>
+        <v>-1.395313827502261</v>
       </c>
       <c r="E81">
-        <v>1.115352766779248</v>
+        <v>-0.7937678359951541</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1785,16 +1785,16 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>-1.547297283488916</v>
+        <v>-0.9165739801720427</v>
       </c>
       <c r="C82">
-        <v>-1.064626356988227</v>
+        <v>-1.76169470952536</v>
       </c>
       <c r="D82">
-        <v>0.9562037072052925</v>
+        <v>1.576270548244669</v>
       </c>
       <c r="E82">
-        <v>0.1995933368626344</v>
+        <v>1.894067190280316</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1802,16 +1802,16 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>1.169646035052734</v>
+        <v>1.272978029623339</v>
       </c>
       <c r="C83">
-        <v>-0.7293141240294037</v>
+        <v>1.263870501887746</v>
       </c>
       <c r="D83">
-        <v>-1.254039262335727</v>
+        <v>0.6826122133880181</v>
       </c>
       <c r="E83">
-        <v>0.06426825262205149</v>
+        <v>-1.588044496996229</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1819,16 +1819,16 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>1.939556903512023</v>
+        <v>1.809058891289675</v>
       </c>
       <c r="C84">
-        <v>1.283402093358765</v>
+        <v>-1.497459583746178</v>
       </c>
       <c r="D84">
-        <v>0.03629122778350657</v>
+        <v>-0.9953748834335432</v>
       </c>
       <c r="E84">
-        <v>1.202351060225165</v>
+        <v>-1.113221135872274</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1836,16 +1836,16 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>-1.337441334006301</v>
+        <v>-1.107233439647393</v>
       </c>
       <c r="C85">
-        <v>-1.1960556370638</v>
+        <v>1.586465570527385</v>
       </c>
       <c r="D85">
-        <v>-1.762090740471389</v>
+        <v>-0.898421755575604</v>
       </c>
       <c r="E85">
-        <v>0.3740218409004346</v>
+        <v>1.081586191499143</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1853,16 +1853,16 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>-0.06696756627496026</v>
+        <v>0.7422802448580406</v>
       </c>
       <c r="C86">
-        <v>-1.467765752642114</v>
+        <v>1.129938556220575</v>
       </c>
       <c r="D86">
-        <v>0.6079145528825931</v>
+        <v>1.546530709018152</v>
       </c>
       <c r="E86">
-        <v>1.014550418825828</v>
+        <v>-0.9278216553378842</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1870,16 +1870,16 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>-1.573590214048555</v>
+        <v>1.239201702530107</v>
       </c>
       <c r="C87">
-        <v>1.49073436799649</v>
+        <v>0.9686142669678737</v>
       </c>
       <c r="D87">
-        <v>-0.01534274061004504</v>
+        <v>-1.079721648877715</v>
       </c>
       <c r="E87">
-        <v>0.7622284463182605</v>
+        <v>-1.487512478478686</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1887,16 +1887,16 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>0.5580771780996958</v>
+        <v>1.04123256844549</v>
       </c>
       <c r="C88">
-        <v>1.266606482863291</v>
+        <v>-0.3072111910263615</v>
       </c>
       <c r="D88">
-        <v>0.7270974123730833</v>
+        <v>1.431021335694699</v>
       </c>
       <c r="E88">
-        <v>1.169092437374374</v>
+        <v>0.9849269117226473</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1904,16 +1904,16 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>0.7933170358247228</v>
+        <v>0.07910399981388938</v>
       </c>
       <c r="C89">
-        <v>-1.486439936742265</v>
+        <v>-0.8249075677550588</v>
       </c>
       <c r="D89">
-        <v>0.1079615911618466</v>
+        <v>1.23033201024943</v>
       </c>
       <c r="E89">
-        <v>0.5572170276550641</v>
+        <v>1.121988433004239</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1921,16 +1921,16 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>-0.8672965465913705</v>
+        <v>0.5117016405887211</v>
       </c>
       <c r="C90">
-        <v>-1.31224798312586</v>
+        <v>-1.147062821288467</v>
       </c>
       <c r="D90">
-        <v>1.518890028312472</v>
+        <v>-1.663186985292608</v>
       </c>
       <c r="E90">
-        <v>-0.3109850981772473</v>
+        <v>1.037203881961949</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -1938,16 +1938,16 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>1.637584467703295</v>
+        <v>-1.259789261149566</v>
       </c>
       <c r="C91">
-        <v>1.029137961998816</v>
+        <v>-1.57571239099017</v>
       </c>
       <c r="D91">
-        <v>-0.4343789456386373</v>
+        <v>1.046471681432618</v>
       </c>
       <c r="E91">
-        <v>0.0205339007286196</v>
+        <v>0.8533136357541333</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -1955,16 +1955,16 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>0.1854051479025989</v>
+        <v>1.681965468521714</v>
       </c>
       <c r="C92">
-        <v>0.2143419138221447</v>
+        <v>0.194701074966976</v>
       </c>
       <c r="D92">
-        <v>-1.36600393863726</v>
+        <v>0.1791866425264725</v>
       </c>
       <c r="E92">
-        <v>-0.4485269794471869</v>
+        <v>-1.900237871163249</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -1972,16 +1972,16 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>-1.011853556783751</v>
+        <v>0.9074354396030122</v>
       </c>
       <c r="C93">
-        <v>0.3190019576389447</v>
+        <v>0.2530168692956227</v>
       </c>
       <c r="D93">
-        <v>-1.661817930813811</v>
+        <v>1.474552443587369</v>
       </c>
       <c r="E93">
-        <v>0.2322957415359288</v>
+        <v>0.4844568189752874</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -1989,16 +1989,16 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>-0.6484004706198812</v>
+        <v>0.2018119231148199</v>
       </c>
       <c r="C94">
-        <v>-0.4941488999676502</v>
+        <v>-1.97784085856481</v>
       </c>
       <c r="D94">
-        <v>1.784563266198868</v>
+        <v>-0.2097226885318191</v>
       </c>
       <c r="E94">
-        <v>1.991688280668823</v>
+        <v>-1.071182517038912</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2006,16 +2006,16 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>-1.754880021632595</v>
+        <v>-1.976537377052907</v>
       </c>
       <c r="C95">
-        <v>0.8646093077440464</v>
+        <v>-0.6814404243133776</v>
       </c>
       <c r="D95">
-        <v>1.031553429288074</v>
+        <v>0.09766748903214451</v>
       </c>
       <c r="E95">
-        <v>-0.5063613151534196</v>
+        <v>-0.1947027644456469</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2023,16 +2023,16 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>-0.7140585543398565</v>
+        <v>-1.373260624715307</v>
       </c>
       <c r="C96">
-        <v>1.09442773327108</v>
+        <v>1.82666499441209</v>
       </c>
       <c r="D96">
-        <v>0.4566278204438303</v>
+        <v>1.645459053725624</v>
       </c>
       <c r="E96">
-        <v>1.832104535118219</v>
+        <v>-1.757863758822749</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2040,16 +2040,16 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>-1.408826463473405</v>
+        <v>-1.868029489824989</v>
       </c>
       <c r="C97">
-        <v>0.9324502714623577</v>
+        <v>-0.6377597184781394</v>
       </c>
       <c r="D97">
-        <v>1.574272278342261</v>
+        <v>0.5750844774215427</v>
       </c>
       <c r="E97">
-        <v>-0.1283086016140365</v>
+        <v>1.623756798453432</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2057,16 +2057,16 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>-1.181572687136596</v>
+        <v>-0.07100164833488853</v>
       </c>
       <c r="C98">
-        <v>-1.684125980736982</v>
+        <v>0.5412154787388666</v>
       </c>
       <c r="D98">
-        <v>1.179726672521578</v>
+        <v>1.608647795218171</v>
       </c>
       <c r="E98">
-        <v>0.4040830979877139</v>
+        <v>1.684953955787441</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2074,16 +2074,16 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>1.062836628164244</v>
+        <v>1.653471968311442</v>
       </c>
       <c r="C99">
-        <v>1.538937416414575</v>
+        <v>-1.727242461161577</v>
       </c>
       <c r="D99">
-        <v>-0.2854616072175369</v>
+        <v>0.5345901828952315</v>
       </c>
       <c r="E99">
-        <v>-1.988963347626169</v>
+        <v>-0.6299647063015685</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2091,16 +2091,16 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>0.150877507450629</v>
+        <v>0.1749344199556111</v>
       </c>
       <c r="C100">
-        <v>-0.105701273238999</v>
+        <v>0.7585244943060654</v>
       </c>
       <c r="D100">
-        <v>-0.4725403536080177</v>
+        <v>-0.268103024495552</v>
       </c>
       <c r="E100">
-        <v>0.8087446480601739</v>
+        <v>1.814949551806933</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2108,16 +2108,16 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>-1.391488127365708</v>
+        <v>-1.783792065820769</v>
       </c>
       <c r="C101">
-        <v>1.436864919974124</v>
+        <v>1.84534103311924</v>
       </c>
       <c r="D101">
-        <v>-0.7103264569990133</v>
+        <v>1.174810592475022</v>
       </c>
       <c r="E101">
-        <v>0.9186709970163149</v>
+        <v>-0.4604858607633515</v>
       </c>
     </row>
   </sheetData>
@@ -2152,16 +2152,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.00354123234125952</v>
+        <v>-108.0069673711141</v>
       </c>
       <c r="C2">
-        <v>91.88298791961712</v>
+        <v>0.004049607107273264</v>
       </c>
       <c r="D2">
-        <v>37.0179920869647</v>
+        <v>264.8753995914606</v>
       </c>
       <c r="E2">
-        <v>-18.5171160440391</v>
+        <v>34.71904382881682</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2169,16 +2169,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.9312513319344007</v>
+        <v>0.0008576363558889936</v>
       </c>
       <c r="C3">
-        <v>0.5879958250493789</v>
+        <v>7.033798758440598</v>
       </c>
       <c r="D3">
-        <v>-0.3983127933528369</v>
+        <v>-17.33740810975518</v>
       </c>
       <c r="E3">
-        <v>0.00908651569250039</v>
+        <v>32.10646656774018</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2186,16 +2186,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2175.305254403112</v>
+        <v>-0.1676004609221106</v>
       </c>
       <c r="C4">
-        <v>-2157.682635931988</v>
+        <v>-0.0041449641567377</v>
       </c>
       <c r="D4">
-        <v>-856.6743141534926</v>
+        <v>-6.52061502501265</v>
       </c>
       <c r="E4">
-        <v>2070.70623419428</v>
+        <v>0.05684145832372425</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2203,16 +2203,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-0.02599975736876623</v>
+        <v>-0.107422027079062</v>
       </c>
       <c r="C5">
-        <v>1.614686708209851</v>
+        <v>-59.45333763613677</v>
       </c>
       <c r="D5">
-        <v>0.004870613097594142</v>
+        <v>-1.507609143801989</v>
       </c>
       <c r="E5">
-        <v>0.5790933161934972</v>
+        <v>0.1655235442462059</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2220,16 +2220,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-1.237964414017911</v>
+        <v>-6.437518046971475</v>
       </c>
       <c r="C6">
-        <v>5.05640007583717</v>
+        <v>0.001188264027284737</v>
       </c>
       <c r="D6">
-        <v>-3.704809953740942</v>
+        <v>-26.1565308771809</v>
       </c>
       <c r="E6">
-        <v>2.139238790649661</v>
+        <v>83.53282734394307</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2237,16 +2237,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.7282841210812507</v>
+        <v>0.02117965556020796</v>
       </c>
       <c r="C7">
-        <v>-6.304611567132902</v>
+        <v>2098.768809734004</v>
       </c>
       <c r="D7">
-        <v>-28.05824467192846</v>
+        <v>-1660.285986275573</v>
       </c>
       <c r="E7">
-        <v>29.98403026493189</v>
+        <v>-303.6790890639967</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2254,16 +2254,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-3.541602353040571</v>
+        <v>31.4601592783911</v>
       </c>
       <c r="C8">
-        <v>-99.73188471536801</v>
+        <v>-30.41680918208473</v>
       </c>
       <c r="D8">
-        <v>0.00104209759361466</v>
+        <v>10.8734439434203</v>
       </c>
       <c r="E8">
-        <v>652.6892433768202</v>
+        <v>0.0005651369684010958</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2271,16 +2271,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.3644941896477405</v>
+        <v>-2.22303467957997</v>
       </c>
       <c r="C9">
-        <v>0.0372033939597434</v>
+        <v>0.002041387304143306</v>
       </c>
       <c r="D9">
-        <v>-0.5699801904063664</v>
+        <v>2.123366612837303</v>
       </c>
       <c r="E9">
-        <v>2.154345480954958</v>
+        <v>72.80241291235619</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2288,16 +2288,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.0493721850172486</v>
+        <v>0.003616231299259995</v>
       </c>
       <c r="C10">
-        <v>1.398052105287243</v>
+        <v>-0.07085341995877298</v>
       </c>
       <c r="D10">
-        <v>-0.05822571523354059</v>
+        <v>0.7287669753663096</v>
       </c>
       <c r="E10">
-        <v>2.037305804144137</v>
+        <v>2.431039407749443</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2305,16 +2305,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.6401934565315345</v>
+        <v>12.84564418174819</v>
       </c>
       <c r="C11">
-        <v>-2.575641075994878</v>
+        <v>42.70810455375596</v>
       </c>
       <c r="D11">
-        <v>0.00342421676387793</v>
+        <v>2.122265605413218</v>
       </c>
       <c r="E11">
-        <v>10.95261714256976</v>
+        <v>79.37042149642249</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2322,16 +2322,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>2.785457693558661</v>
+        <v>-122.2643182618285</v>
       </c>
       <c r="C12">
-        <v>-16.39650570062511</v>
+        <v>0.009225777272209388</v>
       </c>
       <c r="D12">
-        <v>128.4794270833883</v>
+        <v>175.6868714628164</v>
       </c>
       <c r="E12">
-        <v>0.009448745839011466</v>
+        <v>-75.39319414180932</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2339,16 +2339,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-0.06834350050968852</v>
+        <v>-1.422733953754398</v>
       </c>
       <c r="C13">
-        <v>-0.06135608820797769</v>
+        <v>3.815606483518931</v>
       </c>
       <c r="D13">
-        <v>1.686482555657333</v>
+        <v>36.30902118594653</v>
       </c>
       <c r="E13">
-        <v>0.01885736292749839</v>
+        <v>54.76365923836033</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2356,16 +2356,16 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-9.292539329910753</v>
+        <v>1.222025549643107</v>
       </c>
       <c r="C14">
-        <v>0.1259815324005741</v>
+        <v>-0.04988295896557336</v>
       </c>
       <c r="D14">
-        <v>43.77087090271436</v>
+        <v>0.1657434695171987</v>
       </c>
       <c r="E14">
-        <v>64.72045052840741</v>
+        <v>-3.594103221970603</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2373,16 +2373,16 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-2.588492742287783</v>
+        <v>0.3347933435693596</v>
       </c>
       <c r="C15">
-        <v>59.4955417929889</v>
+        <v>0.6024648220731592</v>
       </c>
       <c r="D15">
-        <v>-0.1206105271962045</v>
+        <v>1.102042824203453</v>
       </c>
       <c r="E15">
-        <v>0.8991852839758899</v>
+        <v>0.0006236975506237359</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2390,16 +2390,16 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1.39071040961144</v>
+        <v>35.2654874804302</v>
       </c>
       <c r="C16">
-        <v>-0.9552215831539264</v>
+        <v>169.6021192801752</v>
       </c>
       <c r="D16">
-        <v>-0.000391934469579244</v>
+        <v>8.477235066169213</v>
       </c>
       <c r="E16">
-        <v>0.1966900653343513</v>
+        <v>-7.367999322656168</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2407,16 +2407,16 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.155507477484371</v>
+        <v>1.221891353661059</v>
       </c>
       <c r="C17">
-        <v>1.542761988401746</v>
+        <v>0.5703237796233169</v>
       </c>
       <c r="D17">
-        <v>-6.862626182861745</v>
+        <v>-1.709780698336437</v>
       </c>
       <c r="E17">
-        <v>-0.002661002846532963</v>
+        <v>-1.810046592459631</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2424,16 +2424,16 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.0003398981646279103</v>
+        <v>-1.836450284879223</v>
       </c>
       <c r="C18">
-        <v>-74.69348860169602</v>
+        <v>62.8767700094226</v>
       </c>
       <c r="D18">
-        <v>-17.22381279675057</v>
+        <v>0.1799469150252427</v>
       </c>
       <c r="E18">
-        <v>174.8039037527947</v>
+        <v>-0.0001415292567473507</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2441,16 +2441,16 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>-0.02184395289520168</v>
+        <v>-2.402943353734941</v>
       </c>
       <c r="C19">
-        <v>0.00173898567467489</v>
+        <v>44.53439659643279</v>
       </c>
       <c r="D19">
-        <v>0.5619607418260824</v>
+        <v>-0.01328063671396947</v>
       </c>
       <c r="E19">
-        <v>2.800176026107481</v>
+        <v>2.399261227876057</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2458,16 +2458,16 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.5464561208851657</v>
+        <v>-1.73373023370936</v>
       </c>
       <c r="C20">
-        <v>1.053320869311876</v>
+        <v>6.511830987068173</v>
       </c>
       <c r="D20">
-        <v>0.07774169384589705</v>
+        <v>-5.056439703775633</v>
       </c>
       <c r="E20">
-        <v>-0.1184865745645334</v>
+        <v>2.422552829496419</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2475,16 +2475,16 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>-42.7398868442377</v>
+        <v>1.281601882602803</v>
       </c>
       <c r="C21">
-        <v>-24.66403828000554</v>
+        <v>-0.791837002684415</v>
       </c>
       <c r="D21">
-        <v>192.956018022427</v>
+        <v>1.028516021390804</v>
       </c>
       <c r="E21">
-        <v>0.004368786601476988</v>
+        <v>-1.565899534689873</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2492,16 +2492,16 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>-0.0001018512676202898</v>
+        <v>-8.897878042279366</v>
       </c>
       <c r="C22">
-        <v>2.258957126997453</v>
+        <v>-47.24110516751909</v>
       </c>
       <c r="D22">
-        <v>-8.766476051023499</v>
+        <v>106.1576875399289</v>
       </c>
       <c r="E22">
-        <v>4.36598945227367</v>
+        <v>0.01427658454268679</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2509,16 +2509,16 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>-5.648226369107782</v>
+        <v>75.57992736315779</v>
       </c>
       <c r="C23">
-        <v>-10.51549248315273</v>
+        <v>99.50622180192804</v>
       </c>
       <c r="D23">
-        <v>0.270985731699196</v>
+        <v>-96.65793093954412</v>
       </c>
       <c r="E23">
-        <v>32.53403193159629</v>
+        <v>24.99675385430385</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2526,16 +2526,16 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>-0.007363258212102717</v>
+        <v>-6.287330541974674</v>
       </c>
       <c r="C24">
-        <v>-17.53652058207211</v>
+        <v>0.00318728993356144</v>
       </c>
       <c r="D24">
-        <v>48.67951904814284</v>
+        <v>9.411121017569858</v>
       </c>
       <c r="E24">
-        <v>1.112000872883253</v>
+        <v>-3.608470908370605</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2543,16 +2543,16 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>-3.332616882453135</v>
+        <v>-25.58422125131714</v>
       </c>
       <c r="C25">
-        <v>-9.702238680718189</v>
+        <v>0.008320400621138082</v>
       </c>
       <c r="D25">
-        <v>23.95690589064643</v>
+        <v>-52.81031973111222</v>
       </c>
       <c r="E25">
-        <v>0.002222182548833778</v>
+        <v>211.6749597276414</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2560,16 +2560,16 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0.6563017265328368</v>
+        <v>11.40322078796756</v>
       </c>
       <c r="C26">
-        <v>138.8942594961616</v>
+        <v>85.69707983056199</v>
       </c>
       <c r="D26">
-        <v>-65.08742347358688</v>
+        <v>0.01830540432368209</v>
       </c>
       <c r="E26">
-        <v>0.0467367314343327</v>
+        <v>1.320631551916791</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2577,16 +2577,16 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>-1.145498668754496</v>
+        <v>118.8566310237852</v>
       </c>
       <c r="C27">
-        <v>0.01296063169073834</v>
+        <v>384.9131034325741</v>
       </c>
       <c r="D27">
-        <v>-8.1469567177008</v>
+        <v>17.40569882423881</v>
       </c>
       <c r="E27">
-        <v>26.56337697620644</v>
+        <v>-402.9847387035821</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2594,16 +2594,16 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0.1962777371140041</v>
+        <v>-20.60755986554534</v>
       </c>
       <c r="C28">
-        <v>-0.3331777420092152</v>
+        <v>1.089226581658092</v>
       </c>
       <c r="D28">
-        <v>90.22206676521711</v>
+        <v>75.00302793421463</v>
       </c>
       <c r="E28">
-        <v>5.719869944820275</v>
+        <v>-0.406779944259445</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2611,16 +2611,16 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0.3671868277272663</v>
+        <v>3.541199703054079</v>
       </c>
       <c r="C29">
-        <v>15.78439917755394</v>
+        <v>-0.3034532872090256</v>
       </c>
       <c r="D29">
-        <v>0.003262449714743457</v>
+        <v>0.07824309115314122</v>
       </c>
       <c r="E29">
-        <v>119.5293130378274</v>
+        <v>186.6414570062144</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2628,16 +2628,16 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0.07271518835668042</v>
+        <v>7.216240628207058</v>
       </c>
       <c r="C30">
-        <v>137.9889131873833</v>
+        <v>29.34152651597551</v>
       </c>
       <c r="D30">
-        <v>-89.37694980518009</v>
+        <v>-66.82685576126937</v>
       </c>
       <c r="E30">
-        <v>17.10495271767599</v>
+        <v>-0.0004250976334309074</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2645,16 +2645,16 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>-0.2132548956343173</v>
+        <v>784.5707034765219</v>
       </c>
       <c r="C31">
-        <v>0.2184350927038708</v>
+        <v>-1354.986363297776</v>
       </c>
       <c r="D31">
-        <v>3.460979256560808</v>
+        <v>1007.086242519382</v>
       </c>
       <c r="E31">
-        <v>0.009187158723669254</v>
+        <v>0.008690813596559023</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2662,16 +2662,16 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>-0.148055285659451</v>
+        <v>3.749869424777002</v>
       </c>
       <c r="C32">
-        <v>-10.37239310014678</v>
+        <v>-5.732859703437715</v>
       </c>
       <c r="D32">
-        <v>6.180952373149502</v>
+        <v>0.694733790821247</v>
       </c>
       <c r="E32">
-        <v>16.94448627234484</v>
+        <v>-0.0001636829186896249</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2679,16 +2679,16 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>9.785620465031778</v>
+        <v>0.001294757840033428</v>
       </c>
       <c r="C33">
-        <v>2.537585338460686</v>
+        <v>5.578664762137052</v>
       </c>
       <c r="D33">
-        <v>-87.78656441134066</v>
+        <v>-0.5339209287877414</v>
       </c>
       <c r="E33">
-        <v>121.8196837330697</v>
+        <v>-3.65743624252489</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2696,16 +2696,16 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>195.3714040958406</v>
+        <v>17.61102901872224</v>
       </c>
       <c r="C34">
-        <v>49.5360312615021</v>
+        <v>126.8167248135702</v>
       </c>
       <c r="D34">
-        <v>-193.5454725102868</v>
+        <v>1107.797690921275</v>
       </c>
       <c r="E34">
-        <v>11.79806211410614</v>
+        <v>-418.4887089696124</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2713,16 +2713,16 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>-41.66934370866625</v>
+        <v>-2.527319249722844</v>
       </c>
       <c r="C35">
-        <v>1.244017351511665</v>
+        <v>0.8060430290909408</v>
       </c>
       <c r="D35">
-        <v>82.47269541168978</v>
+        <v>-0.01535666924076244</v>
       </c>
       <c r="E35">
-        <v>0.003790456977247725</v>
+        <v>-2.051086536465293</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2730,16 +2730,16 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>149.4998904836498</v>
+        <v>-14.04075639617688</v>
       </c>
       <c r="C36">
-        <v>-374.1596446775138</v>
+        <v>-4.785324361805287e-05</v>
       </c>
       <c r="D36">
-        <v>-98.17399466826174</v>
+        <v>8.052089433750204</v>
       </c>
       <c r="E36">
-        <v>0.007242216782507328</v>
+        <v>58.41453540999616</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2747,16 +2747,16 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>-18.98486733217199</v>
+        <v>-0.8632803968137508</v>
       </c>
       <c r="C37">
-        <v>-33.85466766690782</v>
+        <v>-5.408360922679819</v>
       </c>
       <c r="D37">
-        <v>1.03726757683271</v>
+        <v>0.01138992204978878</v>
       </c>
       <c r="E37">
-        <v>138.1601973229797</v>
+        <v>25.40392993353301</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2764,16 +2764,16 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>4.225881413753601</v>
+        <v>267.7734986862964</v>
       </c>
       <c r="C38">
-        <v>-0.000246506056441249</v>
+        <v>1056.39883818352</v>
       </c>
       <c r="D38">
-        <v>-4.993450026776476</v>
+        <v>-1076.034538900959</v>
       </c>
       <c r="E38">
-        <v>4.846320056124991</v>
+        <v>7.547473979261342</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2781,16 +2781,16 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>0.0006796461874190693</v>
+        <v>0.1161983107272387</v>
       </c>
       <c r="C39">
-        <v>13.20996011905698</v>
+        <v>-9.797097128091513</v>
       </c>
       <c r="D39">
-        <v>35.09923011025599</v>
+        <v>-0.0002508304486430039</v>
       </c>
       <c r="E39">
-        <v>293.4476033042356</v>
+        <v>25.47342507610658</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2798,16 +2798,16 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>29.39883106221345</v>
+        <v>-0.6090892866163358</v>
       </c>
       <c r="C40">
-        <v>0.0006316096952123926</v>
+        <v>0.9156186853184226</v>
       </c>
       <c r="D40">
-        <v>-15.6264883173899</v>
+        <v>-2.320568085384319</v>
       </c>
       <c r="E40">
-        <v>468.7593799915833</v>
+        <v>8.240354115268762</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2815,16 +2815,16 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>0.1830567762961118</v>
+        <v>-0.3630679222453754</v>
       </c>
       <c r="C41">
-        <v>0.003794086756921782</v>
+        <v>1.444344719566855</v>
       </c>
       <c r="D41">
-        <v>-0.1100121968658943</v>
+        <v>47.84348870804013</v>
       </c>
       <c r="E41">
-        <v>2.889344463948031</v>
+        <v>20.08156574257011</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2832,16 +2832,16 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>-106.02536736312</v>
+        <v>-2.669793385612086</v>
       </c>
       <c r="C42">
-        <v>-44.4596970970479</v>
+        <v>-162.2385738262297</v>
       </c>
       <c r="D42">
-        <v>-82.6679849747691</v>
+        <v>0.3479024969882327</v>
       </c>
       <c r="E42">
-        <v>340.8063792792646</v>
+        <v>249.5531344233583</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2849,16 +2849,16 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>37.5393947514078</v>
+        <v>80.87148600477529</v>
       </c>
       <c r="C43">
-        <v>-102.9450617498339</v>
+        <v>142.070854687607</v>
       </c>
       <c r="D43">
-        <v>306.3142186546535</v>
+        <v>-171.7334652207461</v>
       </c>
       <c r="E43">
-        <v>0.08451983428659222</v>
+        <v>-51.39418207442228</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2866,16 +2866,16 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>0.1763039603503194</v>
+        <v>-142.3711002038325</v>
       </c>
       <c r="C44">
-        <v>-0.1763007604824786</v>
+        <v>-68.74059180855021</v>
       </c>
       <c r="D44">
-        <v>1.898924876454516</v>
+        <v>205.5142082240427</v>
       </c>
       <c r="E44">
-        <v>-0.06354507705267398</v>
+        <v>8.51625620461332</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2883,16 +2883,16 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>-0.09554885560110268</v>
+        <v>-72.87910775315611</v>
       </c>
       <c r="C45">
-        <v>-0.03749543550414572</v>
+        <v>-268.3636808995624</v>
       </c>
       <c r="D45">
-        <v>0.02387013175687305</v>
+        <v>589.2800130227382</v>
       </c>
       <c r="E45">
-        <v>3.779939179365507</v>
+        <v>238.806517101659</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2900,16 +2900,16 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>0.0003646905057201321</v>
+        <v>-112.3909467905747</v>
       </c>
       <c r="C46">
-        <v>12.13726380355616</v>
+        <v>-55.64966202683561</v>
       </c>
       <c r="D46">
-        <v>71.52518204529395</v>
+        <v>1951.343616301214</v>
       </c>
       <c r="E46">
-        <v>0.7544013866571768</v>
+        <v>-1203.074516249374</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2917,16 +2917,16 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>-182.2942440647439</v>
+        <v>-0.002559121463927598</v>
       </c>
       <c r="C47">
-        <v>262.3529444465403</v>
+        <v>0.2403723262221034</v>
       </c>
       <c r="D47">
-        <v>205.6148190386687</v>
+        <v>111.1549000793719</v>
       </c>
       <c r="E47">
-        <v>-342.6196090791328</v>
+        <v>-137.0819670385572</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2934,16 +2934,16 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>-24.22209755386546</v>
+        <v>98.05217560865111</v>
       </c>
       <c r="C48">
-        <v>24.18041607173252</v>
+        <v>0.01247310048467842</v>
       </c>
       <c r="D48">
-        <v>47.52847149597183</v>
+        <v>-13.10794790862881</v>
       </c>
       <c r="E48">
-        <v>0.9362643674917429</v>
+        <v>-78.83413593596904</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2951,16 +2951,16 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>-5.866463410209688</v>
+        <v>-1.355152738682667</v>
       </c>
       <c r="C49">
-        <v>5.719307553639653</v>
+        <v>-0.001840298533306136</v>
       </c>
       <c r="D49">
-        <v>-19.66107803443256</v>
+        <v>1.482970410743897</v>
       </c>
       <c r="E49">
-        <v>22.48333014624636</v>
+        <v>-5.968957532892057</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2968,16 +2968,16 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>135.3175294164687</v>
+        <v>2.565862671926864e-05</v>
       </c>
       <c r="C50">
-        <v>0.2973059526596366</v>
+        <v>14.78886010219894</v>
       </c>
       <c r="D50">
-        <v>0.8872072284969387</v>
+        <v>3.20470805280735</v>
       </c>
       <c r="E50">
-        <v>-75.64565831283325</v>
+        <v>69.35437697506492</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2985,16 +2985,16 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>1.721544453196409</v>
+        <v>0.2592002950074042</v>
       </c>
       <c r="C51">
-        <v>87.51040985404811</v>
+        <v>0.7340603079246812</v>
       </c>
       <c r="D51">
-        <v>0.0007314301388544976</v>
+        <v>0.0003131790532754934</v>
       </c>
       <c r="E51">
-        <v>-33.19517939445073</v>
+        <v>1.206089309048964</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -3002,16 +3002,16 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>76.40690487569059</v>
+        <v>-0.2347233003076391</v>
       </c>
       <c r="C52">
-        <v>560.0990716274346</v>
+        <v>1.150887258488819</v>
       </c>
       <c r="D52">
-        <v>-82.96584255438381</v>
+        <v>69.88372888479344</v>
       </c>
       <c r="E52">
-        <v>-284.1054071888046</v>
+        <v>18.04277736425675</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -3019,16 +3019,16 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>0.2098654761133943</v>
+        <v>0.0106634855266898</v>
       </c>
       <c r="C53">
-        <v>2.4723061535172</v>
+        <v>134.8927861197464</v>
       </c>
       <c r="D53">
-        <v>-4.987186658424895</v>
+        <v>-0.004662027678440832</v>
       </c>
       <c r="E53">
-        <v>20.29368888574924</v>
+        <v>19.04816445373724</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3036,16 +3036,16 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>6.438566417363759</v>
+        <v>-0.8203942711469343</v>
       </c>
       <c r="C54">
-        <v>-10.11638178889223</v>
+        <v>2.271450439849708</v>
       </c>
       <c r="D54">
-        <v>22.52602827440401</v>
+        <v>0.0060325686519216</v>
       </c>
       <c r="E54">
-        <v>-18.20219743645619</v>
+        <v>-0.02284249797579206</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3053,16 +3053,16 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>-10.70824472624758</v>
+        <v>-1.063772088137638</v>
       </c>
       <c r="C55">
-        <v>189.8225431392867</v>
+        <v>-0.0006803528560649821</v>
       </c>
       <c r="D55">
-        <v>1.762840171032479</v>
+        <v>6.270542512011584</v>
       </c>
       <c r="E55">
-        <v>0.001993960289922174</v>
+        <v>0.0719585969278897</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -3070,16 +3070,16 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>727.3857822824457</v>
+        <v>122.2647551580655</v>
       </c>
       <c r="C56">
-        <v>-761.9525424114067</v>
+        <v>-0.7481090277627817</v>
       </c>
       <c r="D56">
-        <v>1049.951739931894</v>
+        <v>-72.88387806833964</v>
       </c>
       <c r="E56">
-        <v>-1071.776902471251</v>
+        <v>1.658766240315058</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3087,16 +3087,16 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>-0.2341767980224952</v>
+        <v>-0.3098774506598115</v>
       </c>
       <c r="C57">
-        <v>0.03468837214100996</v>
+        <v>0.0525939257508818</v>
       </c>
       <c r="D57">
-        <v>0.9190501747467064</v>
+        <v>-0.1755954694184365</v>
       </c>
       <c r="E57">
-        <v>-0.02207832085332272</v>
+        <v>4.386425225913749</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -3104,16 +3104,16 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>23.71388405557948</v>
+        <v>0.3923172588022401</v>
       </c>
       <c r="C58">
-        <v>45.61443794615744</v>
+        <v>0.02254948699820464</v>
       </c>
       <c r="D58">
-        <v>-34.12200972406686</v>
+        <v>0.8101483841095962</v>
       </c>
       <c r="E58">
-        <v>44.17163785833594</v>
+        <v>-0.05093024731162962</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -3121,16 +3121,16 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>1.525030516399026</v>
+        <v>-0.3931095224221615</v>
       </c>
       <c r="C59">
-        <v>0.0006248917024078491</v>
+        <v>0.1793698506428864</v>
       </c>
       <c r="D59">
-        <v>-28.12448818979193</v>
+        <v>44.98908704161993</v>
       </c>
       <c r="E59">
-        <v>58.70518707138836</v>
+        <v>-31.1871171443891</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3138,16 +3138,16 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>-11.16152293618658</v>
+        <v>0.2543822713262949</v>
       </c>
       <c r="C60">
-        <v>-76.53936598896263</v>
+        <v>103.4255275189793</v>
       </c>
       <c r="D60">
-        <v>223.3886321189523</v>
+        <v>-38.11901382348826</v>
       </c>
       <c r="E60">
-        <v>2.990033253322895</v>
+        <v>169.5871333552225</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -3155,16 +3155,16 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>22.42637501791641</v>
+        <v>0.02098785605043123</v>
       </c>
       <c r="C61">
-        <v>-0.8448602280351153</v>
+        <v>-11.6110773974616</v>
       </c>
       <c r="D61">
-        <v>1.015474669054758</v>
+        <v>300.3606919957025</v>
       </c>
       <c r="E61">
-        <v>56.03970426068496</v>
+        <v>0.0004321429242530398</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3172,16 +3172,16 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>9.944600411641876</v>
+        <v>-0.03660545476396315</v>
       </c>
       <c r="C62">
-        <v>19.30513150069699</v>
+        <v>-3.217692053258214</v>
       </c>
       <c r="D62">
-        <v>0.2701405293999429</v>
+        <v>1.102983191526655</v>
       </c>
       <c r="E62">
-        <v>75.1506615087672</v>
+        <v>-3.496753292982198</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -3189,16 +3189,16 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>-1.970572188114158</v>
+        <v>0.2054908097824837</v>
       </c>
       <c r="C63">
-        <v>14.18586009229937</v>
+        <v>-0.009890877962716656</v>
       </c>
       <c r="D63">
-        <v>133.64178461226</v>
+        <v>0.3931090591885323</v>
       </c>
       <c r="E63">
-        <v>116.5406271262087</v>
+        <v>-3.208095902953848</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -3206,16 +3206,16 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>-4.110701816222223</v>
+        <v>18.67980625887702</v>
       </c>
       <c r="C64">
-        <v>-0.0001423769734254193</v>
+        <v>-39.16542556137834</v>
       </c>
       <c r="D64">
-        <v>34.56292963270072</v>
+        <v>4.709596491919418</v>
       </c>
       <c r="E64">
-        <v>-65.59851033108106</v>
+        <v>88.52258663716773</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -3223,16 +3223,16 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>-15.00084757912756</v>
+        <v>8.958884644033458e-05</v>
       </c>
       <c r="C65">
-        <v>17.84668481504674</v>
+        <v>7.665168289209479</v>
       </c>
       <c r="D65">
-        <v>-0.007444860013557511</v>
+        <v>94.44122514675784</v>
       </c>
       <c r="E65">
-        <v>10.16382361239599</v>
+        <v>-18.8638410719141</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -3240,16 +3240,16 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>-1.239713445673617</v>
+        <v>-0.006821551240845641</v>
       </c>
       <c r="C66">
-        <v>0.4577929329906965</v>
+        <v>-3.810042905893718</v>
       </c>
       <c r="D66">
-        <v>80.41892992506186</v>
+        <v>0.7527396545374416</v>
       </c>
       <c r="E66">
-        <v>0.0003044518448996039</v>
+        <v>-0.8611645729512546</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -3257,16 +3257,16 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>-0.4556867422530099</v>
+        <v>-105.4105107998999</v>
       </c>
       <c r="C67">
-        <v>-0.43104271299807</v>
+        <v>-10.14737568870539</v>
       </c>
       <c r="D67">
-        <v>2.208198914980251</v>
+        <v>0.0009090395229565825</v>
       </c>
       <c r="E67">
-        <v>0.8140090341694143</v>
+        <v>582.1653126888472</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -3274,16 +3274,16 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>0.1858638762289427</v>
+        <v>-118.7183817921721</v>
       </c>
       <c r="C68">
-        <v>2.267639138092906</v>
+        <v>229.0064731251565</v>
       </c>
       <c r="D68">
-        <v>-2.480982289955449</v>
+        <v>-143.3149561248404</v>
       </c>
       <c r="E68">
-        <v>0.05249197227351805</v>
+        <v>47.21211887567598</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3291,16 +3291,16 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>66.99346464828673</v>
+        <v>0.5929105242729569</v>
       </c>
       <c r="C69">
-        <v>189.3139075494531</v>
+        <v>25.88311487104036</v>
       </c>
       <c r="D69">
-        <v>-235.1030161970554</v>
+        <v>-15.00166761479852</v>
       </c>
       <c r="E69">
-        <v>117.1595276553207</v>
+        <v>-0.06118492538806562</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -3308,16 +3308,16 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>-2.810143981779935</v>
+        <v>42.88644504209761</v>
       </c>
       <c r="C70">
-        <v>6.014954267103447</v>
+        <v>-228.4206316763506</v>
       </c>
       <c r="D70">
-        <v>3.524788245215533</v>
+        <v>-18.09843778206482</v>
       </c>
       <c r="E70">
-        <v>-7.963369232180597</v>
+        <v>234.9821663583389</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -3325,16 +3325,16 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>2.518899114065169</v>
+        <v>-1769.852893325502</v>
       </c>
       <c r="C71">
-        <v>-13.45711472089888</v>
+        <v>54.48409193340265</v>
       </c>
       <c r="D71">
-        <v>0.3680224287676104</v>
+        <v>1906.830540283095</v>
       </c>
       <c r="E71">
-        <v>78.3875378456373</v>
+        <v>-128.1270319115125</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -3342,16 +3342,16 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>-0.01353822503484163</v>
+        <v>-10.05510245173335</v>
       </c>
       <c r="C72">
-        <v>0.7511142277643167</v>
+        <v>0.7240759438570701</v>
       </c>
       <c r="D72">
-        <v>0.002877567407254465</v>
+        <v>-5.147311852458037</v>
       </c>
       <c r="E72">
-        <v>1.980669046614199</v>
+        <v>54.06564212861291</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -3359,16 +3359,16 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>0.3511573340082494</v>
+        <v>15.78919778567302</v>
       </c>
       <c r="C73">
-        <v>0.002997356171448129</v>
+        <v>-0.0003475123957592375</v>
       </c>
       <c r="D73">
-        <v>-3.472658921014057</v>
+        <v>11.14270675242628</v>
       </c>
       <c r="E73">
-        <v>10.77996447728282</v>
+        <v>-24.31091360441618</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -3376,16 +3376,16 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>-0.2404863088892462</v>
+        <v>0.3346792244596448</v>
       </c>
       <c r="C74">
-        <v>-1.845437707170923</v>
+        <v>0.6032857107946071</v>
       </c>
       <c r="D74">
-        <v>0.004010911002303854</v>
+        <v>0.0002257265723005595</v>
       </c>
       <c r="E74">
-        <v>-1.735273431371791</v>
+        <v>1.467356062321545</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -3393,16 +3393,16 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>-21.72408790774909</v>
+        <v>91.69643404025862</v>
       </c>
       <c r="C75">
-        <v>298.8317855453856</v>
+        <v>-0.5686553812968771</v>
       </c>
       <c r="D75">
-        <v>31.73773381799541</v>
+        <v>1.817496675291703</v>
       </c>
       <c r="E75">
-        <v>-270.3614634667821</v>
+        <v>558.5564966879476</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -3410,16 +3410,16 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>0.0004539975382790888</v>
+        <v>0.000728568155211432</v>
       </c>
       <c r="C76">
-        <v>16.7426712116935</v>
+        <v>0.04899643357038311</v>
       </c>
       <c r="D76">
-        <v>132.0206958560271</v>
+        <v>3.295459352382721</v>
       </c>
       <c r="E76">
-        <v>1.850482088972186</v>
+        <v>-0.3327084711869558</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -3427,16 +3427,16 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>0.004963147980424163</v>
+        <v>0.09309541085869</v>
       </c>
       <c r="C77">
-        <v>-109.5738932485366</v>
+        <v>2.394443849804173</v>
       </c>
       <c r="D77">
-        <v>47.33427522391171</v>
+        <v>-0.01422062422943487</v>
       </c>
       <c r="E77">
-        <v>142.0785362105319</v>
+        <v>-0.6139999180468607</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -3444,16 +3444,16 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>-0.001056916453857228</v>
+        <v>0.3725194491593553</v>
       </c>
       <c r="C78">
-        <v>2.000274521125597</v>
+        <v>8.517556335889296</v>
       </c>
       <c r="D78">
-        <v>0.2019285137132071</v>
+        <v>58.72967226374491</v>
       </c>
       <c r="E78">
-        <v>-0.4788416161395892</v>
+        <v>-0.0290272403757472</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -3461,16 +3461,16 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>0.005117039111857902</v>
+        <v>-0.05271123250553737</v>
       </c>
       <c r="C79">
-        <v>-4.541444031980853</v>
+        <v>0.8518206843554392</v>
       </c>
       <c r="D79">
-        <v>-0.03548931385240535</v>
+        <v>0.01815901178367569</v>
       </c>
       <c r="E79">
-        <v>3.994813381337941</v>
+        <v>1.183423743837026</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -3478,16 +3478,16 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>-214.089458979903</v>
+        <v>0.3370539406701368</v>
       </c>
       <c r="C80">
-        <v>3.740248289542421</v>
+        <v>0.5167488249576777</v>
       </c>
       <c r="D80">
-        <v>-18.1292882683958</v>
+        <v>1.098070042903349</v>
       </c>
       <c r="E80">
-        <v>324.5981489585004</v>
+        <v>4.975186333263617e-05</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -3495,16 +3495,16 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>-0.3821377852986577</v>
+        <v>-22.34029350823144</v>
       </c>
       <c r="C81">
-        <v>-3.155767018851787</v>
+        <v>5.61849253459703</v>
       </c>
       <c r="D81">
-        <v>-0.9268550703935456</v>
+        <v>-31.10791105896249</v>
       </c>
       <c r="E81">
-        <v>3.155346873551799</v>
+        <v>85.74137512786443</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -3512,16 +3512,16 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>-25.68638794487026</v>
+        <v>0.2377879244953598</v>
       </c>
       <c r="C82">
-        <v>113.1869027117366</v>
+        <v>1.284282234981284</v>
       </c>
       <c r="D82">
-        <v>0.06965338717951458</v>
+        <v>-0.01527376806832602</v>
       </c>
       <c r="E82">
-        <v>1.699882664732462</v>
+        <v>0.003778142573693814</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -3529,16 +3529,16 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>0.0110113655193987</v>
+        <v>-1.948859198928908</v>
       </c>
       <c r="C83">
-        <v>88.67884800599438</v>
+        <v>2.115530764095711</v>
       </c>
       <c r="D83">
-        <v>15.8777834049293</v>
+        <v>-1.355854452346214</v>
       </c>
       <c r="E83">
-        <v>54.59666451166795</v>
+        <v>-2.37843378937472</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -3546,16 +3546,16 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>-1.727253198064529e-06</v>
+        <v>0.0007104174131314688</v>
       </c>
       <c r="C84">
-        <v>0.2792853998617106</v>
+        <v>206.4862192723086</v>
       </c>
       <c r="D84">
-        <v>2.686985741801907</v>
+        <v>-380.4426108022353</v>
       </c>
       <c r="E84">
-        <v>-0.4053499424577801</v>
+        <v>472.4026937240578</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3563,16 +3563,16 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>102.9735165307691</v>
+        <v>0.5805515798153137</v>
       </c>
       <c r="C85">
-        <v>136.640376929433</v>
+        <v>0.01112119986386357</v>
       </c>
       <c r="D85">
-        <v>-68.85910695439071</v>
+        <v>1.27868415265031</v>
       </c>
       <c r="E85">
-        <v>2.598202686240468</v>
+        <v>-0.1083569971446841</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -3580,16 +3580,16 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>-5.203037947766072</v>
+        <v>0.5472327747277821</v>
       </c>
       <c r="C86">
-        <v>5.370847455626174</v>
+        <v>-0.2674723842032452</v>
       </c>
       <c r="D86">
-        <v>-1.816439442923931</v>
+        <v>0.02774794542883715</v>
       </c>
       <c r="E86">
-        <v>0.2375869716513305</v>
+        <v>2.673468428364311</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3597,16 +3597,16 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>240.1436932083696</v>
+        <v>0.001621358076817679</v>
       </c>
       <c r="C87">
-        <v>-0.0008763036361581102</v>
+        <v>0.06338895149860865</v>
       </c>
       <c r="D87">
-        <v>149.3088572147156</v>
+        <v>38.49933318938733</v>
       </c>
       <c r="E87">
-        <v>0.350240656446589</v>
+        <v>137.5100696915869</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3614,16 +3614,16 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>0.5452440653555977</v>
+        <v>0.3197940987838814</v>
       </c>
       <c r="C88">
-        <v>-0.3791834763481801</v>
+        <v>1.955414549653341</v>
       </c>
       <c r="D88">
-        <v>-2.32405498511773</v>
+        <v>0.01900853576900663</v>
       </c>
       <c r="E88">
-        <v>0.845514716306802</v>
+        <v>-0.5583046429688758</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3631,16 +3631,16 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>-0.7910919035567063</v>
+        <v>0.268057783930626</v>
       </c>
       <c r="C89">
-        <v>50.41206673697857</v>
+        <v>1.358085247768835</v>
       </c>
       <c r="D89">
-        <v>-94.26830818621607</v>
+        <v>0.2808068295007944</v>
       </c>
       <c r="E89">
-        <v>6.401594338606838</v>
+        <v>-0.461774680127487</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -3648,16 +3648,16 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>0.6382721883257287</v>
+        <v>-0.1665059993650514</v>
       </c>
       <c r="C90">
-        <v>-6.019454763340307</v>
+        <v>34.35310617241286</v>
       </c>
       <c r="D90">
-        <v>0.005325488201323115</v>
+        <v>207.4968847497013</v>
       </c>
       <c r="E90">
-        <v>21.52370323394059</v>
+        <v>0.05506909606657483</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3665,16 +3665,16 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>-0.001105601116589715</v>
+        <v>114.5859383749533</v>
       </c>
       <c r="C91">
-        <v>0.08496053404602444</v>
+        <v>47.2249157230729</v>
       </c>
       <c r="D91">
-        <v>56.26397465270615</v>
+        <v>0.03665650618810942</v>
       </c>
       <c r="E91">
-        <v>107.6591756243757</v>
+        <v>0.0270544984408433</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -3682,16 +3682,16 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>0.5201243070214261</v>
+        <v>0.0007394442232824791</v>
       </c>
       <c r="C92">
-        <v>1.765859936110491</v>
+        <v>247.6695734039205</v>
       </c>
       <c r="D92">
-        <v>-0.3382578005561609</v>
+        <v>-282.3341747648203</v>
       </c>
       <c r="E92">
-        <v>0.4582900444961365</v>
+        <v>444.0010414438415</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3699,16 +3699,16 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>71.97636123337521</v>
+        <v>0.7102710153974181</v>
       </c>
       <c r="C93">
-        <v>29.64087160286763</v>
+        <v>1.570538990741098</v>
       </c>
       <c r="D93">
-        <v>-20.46973884458808</v>
+        <v>-0.008598845202300028</v>
       </c>
       <c r="E93">
-        <v>-51.70223659104408</v>
+        <v>-5.597899790273085</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3716,16 +3716,16 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>0.3022626933472021</v>
+        <v>25.57044826613475</v>
       </c>
       <c r="C94">
-        <v>0.830538586060483</v>
+        <v>-68.35584149473007</v>
       </c>
       <c r="D94">
-        <v>-0.00760801049497013</v>
+        <v>93.66747336377459</v>
       </c>
       <c r="E94">
-        <v>0.003116501352517701</v>
+        <v>53.57799349346095</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3733,16 +3733,16 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>-7.554757645613563</v>
+        <v>-40.06153393764721</v>
       </c>
       <c r="C95">
-        <v>0.08599063346584546</v>
+        <v>24.01187875884207</v>
       </c>
       <c r="D95">
-        <v>0.03118819036502622</v>
+        <v>116.0257953670772</v>
       </c>
       <c r="E95">
-        <v>35.51004046873409</v>
+        <v>149.5139368066326</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3750,16 +3750,16 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>1.748399017094439</v>
+        <v>0.3540952449517301</v>
       </c>
       <c r="C96">
-        <v>0.1452638075710321</v>
+        <v>0.008602595333018373</v>
       </c>
       <c r="D96">
-        <v>-3.144926162941181</v>
+        <v>-0.01903017616385528</v>
       </c>
       <c r="E96">
-        <v>-0.0006587311506343688</v>
+        <v>2.990948617959101</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3767,16 +3767,16 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>1.097076775380951</v>
+        <v>-0.4694869867498634</v>
       </c>
       <c r="C97">
-        <v>-0.1964057487457352</v>
+        <v>0.1302087827765247</v>
       </c>
       <c r="D97">
-        <v>0.01023016572013965</v>
+        <v>-0.7618864602492522</v>
       </c>
       <c r="E97">
-        <v>-1.007812969180487</v>
+        <v>0.00536103447683556</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3784,16 +3784,16 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>30.07849602575232</v>
+        <v>1.450866203319622</v>
       </c>
       <c r="C98">
-        <v>241.656984645515</v>
+        <v>-1.363789833927983</v>
       </c>
       <c r="D98">
-        <v>0.02148633174321372</v>
+        <v>0.04602889330279003</v>
       </c>
       <c r="E98">
-        <v>0.025554596938625</v>
+        <v>-0.02665183881089271</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3801,16 +3801,16 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>-0.1268511292614383</v>
+        <v>6.489415692342842e-06</v>
       </c>
       <c r="C99">
-        <v>0.0147627330559771</v>
+        <v>0.7035650081437954</v>
       </c>
       <c r="D99">
-        <v>0.6785053939882854</v>
+        <v>1.195271404766907</v>
       </c>
       <c r="E99">
-        <v>3.656228038922827</v>
+        <v>62.69770586818203</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3818,16 +3818,16 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>9.425927177164892</v>
+        <v>-9.169638437505743</v>
       </c>
       <c r="C100">
-        <v>-45.60704779270113</v>
+        <v>0.5564429033841063</v>
       </c>
       <c r="D100">
-        <v>84.2291156520397</v>
+        <v>30.56518103861884</v>
       </c>
       <c r="E100">
-        <v>0.1214625541539565</v>
+        <v>-0.0002413670817984717</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3835,16 +3835,16 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>0.4752120053691878</v>
+        <v>0.2793509643741058</v>
       </c>
       <c r="C101">
-        <v>0.02240085194010851</v>
+        <v>0.002033348465485779</v>
       </c>
       <c r="D101">
-        <v>1.504794078262257</v>
+        <v>-0.03596177812192499</v>
       </c>
       <c r="E101">
-        <v>-0.2406386994998816</v>
+        <v>3.844650064725778</v>
       </c>
     </row>
   </sheetData>
@@ -3870,7 +3870,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4.353738355999397</v>
+        <v>4.358143085047244</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3878,7 +3878,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4.658839385854886</v>
+        <v>4.38001103691405</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3886,7 +3886,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>4.355914085406027</v>
+        <v>4.376698118154739</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3894,7 +3894,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>4.499594153072929</v>
+        <v>4.367685415052975</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3902,7 +3902,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-1000</v>
+        <v>-4.846148291180033</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3910,7 +3910,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>5.746321436862301</v>
+        <v>4.356968765188188</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3918,7 +3918,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>4.412150685530971</v>
+        <v>4.410512632227562</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3926,7 +3926,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>4.424261482396984</v>
+        <v>4.355515010836472</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>4.482396747616581</v>
+        <v>4.461176092193134</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3942,7 +3942,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>4.440658231441656</v>
+        <v>4.353900769563737</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3950,7 +3950,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>4.356337784743116</v>
+        <v>-0.1425669078251133</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3958,7 +3958,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>5.135530131872294</v>
+        <v>4.353869715671738</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3966,7 +3966,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>4.355878322423722</v>
+        <v>4.375784619275459</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3974,7 +3974,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>4.355294202799492</v>
+        <v>4.636998509790963</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3982,7 +3982,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>4.39510906598203</v>
+        <v>4.353931916073556</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3990,7 +3990,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>4.3732068337538</v>
+        <v>4.513756837876556</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3998,7 +3998,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>4.35807317103437</v>
+        <v>4.355362752407631</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4006,7 +4006,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>4.480858724330981</v>
+        <v>4.355632373509996</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4014,7 +4014,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>4.870605658670728</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4022,7 +4022,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>4.357192027181563</v>
+        <v>6.882834788523585</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4030,7 +4030,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>4.366323043857825</v>
+        <v>4.355920969272503</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4038,7 +4038,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>4.359177186417559</v>
+        <v>4.353917594197952</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -4046,7 +4046,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>4.359572110728276</v>
+        <v>4.379717745629023</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -4054,7 +4054,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>4.382000693570049</v>
+        <v>4.357153072115251</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -4062,7 +4062,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>4.355781979544352</v>
+        <v>4.3558803551823</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -4070,7 +4070,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>4.376793350321462</v>
+        <v>4.353988233153366</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -4078,7 +4078,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>4.353744567212836</v>
+        <v>4.3552525155391</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -4086,7 +4086,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>4.356023942571822</v>
+        <v>4.356699888965444</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -4094,7 +4094,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>4.353687586440156</v>
+        <v>4.355891179533458</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -4102,7 +4102,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>4.43703380539549</v>
+        <v>4.358677063703308</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -4110,7 +4110,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>4.364445886822704</v>
+        <v>4.369305844020857</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -4118,7 +4118,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>4.355257994593998</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -4126,7 +4126,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>4.353883171367954</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -4134,7 +4134,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>4.355742275103555</v>
+        <v>4.386819128619779</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -4142,7 +4142,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>4.355817670641727</v>
+        <v>4.355557487915684</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -4150,7 +4150,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>4.356912574259836</v>
+        <v>4.374213425174872</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -4158,7 +4158,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>4.390477369495605</v>
+        <v>4.375453986454286</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -4166,7 +4166,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>4.354171753891869</v>
+        <v>4.359877223225308</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -4174,7 +4174,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>4.354737078248149</v>
+        <v>4.877953359616614</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -4182,7 +4182,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>4.442422017968377</v>
+        <v>4.354054096912488</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -4190,7 +4190,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>4.37681225051189</v>
+        <v>4.356076159423749</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -4198,7 +4198,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>4.356399053164901</v>
+        <v>4.367308138633291</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -4206,7 +4206,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>4.432447888163031</v>
+        <v>4.354210797271428</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -4214,7 +4214,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>4.488260524169474</v>
+        <v>4.354064572751895</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -4222,7 +4222,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>4.355593486877636</v>
+        <v>4.410174289133643</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -4230,7 +4230,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>4.356271012726395</v>
+        <v>4.361513693410046</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -4238,7 +4238,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>4.356795842862148</v>
+        <v>4.325630469470958</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -4246,7 +4246,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>4.78665424003392</v>
+        <v>4.37403357490178</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -4254,7 +4254,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>4.353751134013194</v>
+        <v>4.353855869305775</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -4262,7 +4262,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>4.355917816840858</v>
+        <v>4.641950442799105</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -4270,7 +4270,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>4.389209910151415</v>
+        <v>4.353848088611517</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -4278,7 +4278,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>4.564133416757699</v>
+        <v>4.356747146803849</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -4286,7 +4286,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>-1000</v>
+        <v>4.494713583364763</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -4294,7 +4294,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>4.357395120218239</v>
+        <v>4.3835398397589</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -4302,7 +4302,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>4.355396835131941</v>
+        <v>-1.323201695305478</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -4310,7 +4310,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>4.440555823187838</v>
+        <v>4.426490228885569</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -4318,7 +4318,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>4.354231060773191</v>
+        <v>4.479735543252882</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -4326,7 +4326,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>4.378658560741396</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -4334,7 +4334,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>4.356065536835686</v>
+        <v>4.353843224505368</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -4342,7 +4342,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>4.355381844038249</v>
+        <v>4.358996685942175</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -4350,7 +4350,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>4.353786963616059</v>
+        <v>4.375274144078581</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -4358,7 +4358,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>4.354047136466605</v>
+        <v>4.377135733313763</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -4366,7 +4366,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>4.360219230617808</v>
+        <v>4.353851353439868</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -4374,7 +4374,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>4.361954900843156</v>
+        <v>4.356052244956992</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -4382,7 +4382,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>4.355618623899503</v>
+        <v>4.373812928428302</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -4390,7 +4390,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>4.425477178579085</v>
+        <v>4.361509905146871</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -4398,7 +4398,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>4.442387424613107</v>
+        <v>4.359186356242994</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -4406,7 +4406,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>4.353994483354072</v>
+        <v>4.361180681214339</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -4414,7 +4414,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>4.384668843533181</v>
+        <v>4.3651076617329</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -4422,7 +4422,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>4.355488414150794</v>
+        <v>4.373625480195653</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -4430,7 +4430,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>4.50126778333244</v>
+        <v>4.356227649236422</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -4438,7 +4438,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>4.437650073886591</v>
+        <v>4.362806242876459</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -4446,7 +4446,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>4.418683608072853</v>
+        <v>4.624813623285485</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -4454,7 +4454,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>4.634608300919361</v>
+        <v>4.354218165535372</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -4462,7 +4462,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>4.357049506691227</v>
+        <v>4.440689097219204</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -4470,7 +4470,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>4.356455156718681</v>
+        <v>4.429698601435743</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -4478,7 +4478,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>4.40791248196245</v>
+        <v>4.355367582331654</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -4486,7 +4486,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>4.529326925613917</v>
+        <v>4.9470372045972</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -4494,7 +4494,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>4.355773393468514</v>
+        <v>5.273601714692957</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -4502,7 +4502,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>4.385140613453018</v>
+        <v>4.353810884320795</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -4510,7 +4510,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>4.355856243943668</v>
+        <v>4.504988447300544</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -4518,7 +4518,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>4.353671128516709</v>
+        <v>4.395071532895843</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -4526,7 +4526,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>4.454096338224536</v>
+        <v>4.360896103654278</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -4534,7 +4534,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>4.363478926984103</v>
+        <v>4.447977928677445</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -4542,7 +4542,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>4.393630291014945</v>
+        <v>4.482553646132308</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -4550,7 +4550,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>4.354045058780486</v>
+        <v>4.356518429736566</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -4558,7 +4558,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>4.38051718299743</v>
+        <v>4.426005740395213</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -4566,7 +4566,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>4.35527313958724</v>
+        <v>4.431373460519025</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -4574,7 +4574,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>4.382017271922451</v>
+        <v>4.356957479533466</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -4582,7 +4582,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>4.355462206108697</v>
+        <v>4.356462523449128</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -4590,7 +4590,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>5.355999985190322</v>
+        <v>4.358010905188344</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -4598,7 +4598,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>4.355387922053215</v>
+        <v>4.3709646009473</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -4606,7 +4606,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>4.515312784933848</v>
+        <v>4.353860038281866</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -4614,7 +4614,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>4.360589094142641</v>
+        <v>4.353937912426574</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -4622,7 +4622,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>4.377508699059614</v>
+        <v>4.498842260164802</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -4630,7 +4630,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>4.446960928646139</v>
+        <v>4.424462614196127</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -4638,7 +4638,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>4.357350961991824</v>
+        <v>4.39407855148295</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -4646,7 +4646,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>4.444086733303504</v>
+        <v>4.355350724842692</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -4654,7 +4654,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>4.355354434053086</v>
+        <v>4.358803480244189</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -4662,7 +4662,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>4.428845823361915</v>
+        <v>4.448179676665831</v>
       </c>
     </row>
   </sheetData>

--- a/PhaseResults/m4_PhaseOne.xlsx
+++ b/PhaseResults/m4_PhaseOne.xlsx
@@ -425,16 +425,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-0.8058359140996063</v>
+        <v>1.284473371339719</v>
       </c>
       <c r="C2">
-        <v>1.477079368270846</v>
+        <v>0.8454976766016209</v>
       </c>
       <c r="D2">
-        <v>-1.098046225981444</v>
+        <v>0.8200047234115106</v>
       </c>
       <c r="E2">
-        <v>-1.987949236464791</v>
+        <v>1.112519475529846</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -442,16 +442,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.847923398368849</v>
+        <v>-1.98719217945305</v>
       </c>
       <c r="C3">
-        <v>-1.169580167177209</v>
+        <v>-0.7887397090246941</v>
       </c>
       <c r="D3">
-        <v>-1.570192888131569</v>
+        <v>0.5324416827675926</v>
       </c>
       <c r="E3">
-        <v>-0.8444272057663356</v>
+        <v>-0.9162715459646433</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -459,16 +459,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-0.7153988773757751</v>
+        <v>-1.167635900712793</v>
       </c>
       <c r="C4">
-        <v>1.658907595347753</v>
+        <v>1.620135760469199</v>
       </c>
       <c r="D4">
-        <v>0.288541311044439</v>
+        <v>0.6829234543404969</v>
       </c>
       <c r="E4">
-        <v>1.294412646599783</v>
+        <v>0.6285646128218052</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -476,16 +476,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1.407790556489143</v>
+        <v>0.4728616706505395</v>
       </c>
       <c r="C5">
-        <v>0.06227551850797131</v>
+        <v>1.65868848528467</v>
       </c>
       <c r="D5">
-        <v>-1.913849567263313</v>
+        <v>1.800240470007584</v>
       </c>
       <c r="E5">
-        <v>1.3475323150688</v>
+        <v>0.5397448157664146</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -493,16 +493,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-1.924594844292447</v>
+        <v>-0.5750552418196064</v>
       </c>
       <c r="C6">
-        <v>1.745126190979479</v>
+        <v>-0.2416114312627586</v>
       </c>
       <c r="D6">
-        <v>-0.331882922922049</v>
+        <v>0.8848201478205286</v>
       </c>
       <c r="E6">
-        <v>-0.8081698521181211</v>
+        <v>-1.452699639938947</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -510,16 +510,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1.186764589413904</v>
+        <v>-0.05585498203121153</v>
       </c>
       <c r="C7">
-        <v>-1.302741160472336</v>
+        <v>-1.85998094243861</v>
       </c>
       <c r="D7">
-        <v>-1.269640135534642</v>
+        <v>0.35137408116658</v>
       </c>
       <c r="E7">
-        <v>-1.542207301921749</v>
+        <v>-0.5258107505433471</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -527,16 +527,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-0.4503262495380838</v>
+        <v>-0.8857262840882947</v>
       </c>
       <c r="C8">
-        <v>-0.8920668578846633</v>
+        <v>1.531930998436866</v>
       </c>
       <c r="D8">
-        <v>-1.745426410301766</v>
+        <v>1.236567311764547</v>
       </c>
       <c r="E8">
-        <v>1.973151760180299</v>
+        <v>0.3317582446519753</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -544,16 +544,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-0.8754408538818552</v>
+        <v>-0.7228591534572721</v>
       </c>
       <c r="C9">
-        <v>1.360473970173114</v>
+        <v>-1.748688819169701</v>
       </c>
       <c r="D9">
-        <v>0.4111161267366548</v>
+        <v>-1.901467061002271</v>
       </c>
       <c r="E9">
-        <v>-0.7137636663214746</v>
+        <v>1.856583785619112</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -561,16 +561,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1.767525313898379</v>
+        <v>1.994440996627985</v>
       </c>
       <c r="C10">
-        <v>1.101806483760276</v>
+        <v>-1.664327886038181</v>
       </c>
       <c r="D10">
-        <v>-0.1495660280247446</v>
+        <v>-1.135057643155719</v>
       </c>
       <c r="E10">
-        <v>-1.692674959470339</v>
+        <v>0.8622665048282925</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -578,16 +578,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-0.2321505825354646</v>
+        <v>1.510035693461164</v>
       </c>
       <c r="C11">
-        <v>-0.570103861740999</v>
+        <v>1.04306948146646</v>
       </c>
       <c r="D11">
-        <v>0.4600967293565934</v>
+        <v>-0.1248105333784191</v>
       </c>
       <c r="E11">
-        <v>-1.639113654501418</v>
+        <v>-0.6057815874504047</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -595,16 +595,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-0.1086439186697188</v>
+        <v>0.6081645861737202</v>
       </c>
       <c r="C12">
-        <v>1.176633979768706</v>
+        <v>-1.269216954035151</v>
       </c>
       <c r="D12">
-        <v>-0.6351031829754936</v>
+        <v>-1.175059426298736</v>
       </c>
       <c r="E12">
-        <v>-1.018448415777272</v>
+        <v>1.20281847684231</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -612,16 +612,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.5775071228806117</v>
+        <v>1.598421620553381</v>
       </c>
       <c r="C13">
-        <v>0.5068218019970399</v>
+        <v>0.4113939413051173</v>
       </c>
       <c r="D13">
-        <v>-1.303565996213299</v>
+        <v>-1.612143204119856</v>
       </c>
       <c r="E13">
-        <v>-0.4828210101950317</v>
+        <v>1.951794419756777</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -629,16 +629,16 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-1.8293165178098</v>
+        <v>-1.549485741750479</v>
       </c>
       <c r="C14">
-        <v>1.419375640526009</v>
+        <v>0.03612614048885332</v>
       </c>
       <c r="D14">
-        <v>1.256687607419507</v>
+        <v>-1.476946937841458</v>
       </c>
       <c r="E14">
-        <v>0.4399717550787861</v>
+        <v>-1.626351414209602</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -646,16 +646,16 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-1.740529285290008</v>
+        <v>-0.4083756700318626</v>
       </c>
       <c r="C15">
-        <v>-0.875937782242576</v>
+        <v>0.06835180737237678</v>
       </c>
       <c r="D15">
-        <v>-1.785388719450443</v>
+        <v>-0.9126175567492643</v>
       </c>
       <c r="E15">
-        <v>1.755946006424243</v>
+        <v>0.4409847230053909</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -663,16 +663,16 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-0.1425357083319954</v>
+        <v>-0.7937884730760687</v>
       </c>
       <c r="C16">
-        <v>-1.457904114477685</v>
+        <v>-0.143297785597867</v>
       </c>
       <c r="D16">
-        <v>0.6108588652807789</v>
+        <v>0.277491781954426</v>
       </c>
       <c r="E16">
-        <v>0.6174199413119084</v>
+        <v>1.811162814118073</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -680,16 +680,16 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1.544912295794613</v>
+        <v>1.663211801429589</v>
       </c>
       <c r="C17">
-        <v>1.512076733010699</v>
+        <v>-0.1754249747272059</v>
       </c>
       <c r="D17">
-        <v>-0.4050575383021382</v>
+        <v>1.620835339935877</v>
       </c>
       <c r="E17">
-        <v>1.532709995753509</v>
+        <v>-1.77047402657744</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -697,16 +697,16 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-0.6433970046019519</v>
+        <v>0.5532002919969345</v>
       </c>
       <c r="C18">
-        <v>-0.7616181374878477</v>
+        <v>0.3284807664642972</v>
       </c>
       <c r="D18">
-        <v>0.8604019339048006</v>
+        <v>1.414843989747129</v>
       </c>
       <c r="E18">
-        <v>1.848922505396178</v>
+        <v>0.388185692543487</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -714,16 +714,16 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.7065799905432026</v>
+        <v>-1.923068134011296</v>
       </c>
       <c r="C19">
-        <v>-0.4627780455198596</v>
+        <v>0.92059059959437</v>
       </c>
       <c r="D19">
-        <v>1.301177413002297</v>
+        <v>0.3861405907384676</v>
       </c>
       <c r="E19">
-        <v>0.7558072736687058</v>
+        <v>1.430393736012458</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -731,16 +731,16 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>-1.636730481267568</v>
+        <v>1.333666745635469</v>
       </c>
       <c r="C20">
-        <v>0.09566037225492074</v>
+        <v>1.320924674278323</v>
       </c>
       <c r="D20">
-        <v>-1.131681294188561</v>
+        <v>-0.5593342583418635</v>
       </c>
       <c r="E20">
-        <v>-1.240962760446843</v>
+        <v>-1.131839788912077</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -748,16 +748,16 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.008701764100430331</v>
+        <v>-1.024160177256037</v>
       </c>
       <c r="C21">
-        <v>-1.678718062304229</v>
+        <v>-1.151965387134278</v>
       </c>
       <c r="D21">
-        <v>-1.870744075946808</v>
+        <v>1.34842833249042</v>
       </c>
       <c r="E21">
-        <v>-1.921432476727991</v>
+        <v>-0.06646821634169164</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -765,16 +765,16 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>-0.9520170797448562</v>
+        <v>0.3417889538782837</v>
       </c>
       <c r="C22">
-        <v>-0.1321553845635137</v>
+        <v>1.272918434524478</v>
       </c>
       <c r="D22">
-        <v>-0.7709853727808236</v>
+        <v>-1.206844337232976</v>
       </c>
       <c r="E22">
-        <v>1.198129965715523</v>
+        <v>1.156043048063066</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -782,16 +782,16 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>-0.2769232882589809</v>
+        <v>-1.378669397014228</v>
       </c>
       <c r="C23">
-        <v>-0.9349176513461808</v>
+        <v>1.778519612272222</v>
       </c>
       <c r="D23">
-        <v>-1.207110852948135</v>
+        <v>-0.2632218769751791</v>
       </c>
       <c r="E23">
-        <v>0.193971939386838</v>
+        <v>-1.586000372694132</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -799,16 +799,16 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1.28434754533154</v>
+        <v>0.4366778511099074</v>
       </c>
       <c r="C24">
-        <v>1.953505129649788</v>
+        <v>1.211255683031744</v>
       </c>
       <c r="D24">
-        <v>1.354663440221498</v>
+        <v>0.305603974471917</v>
       </c>
       <c r="E24">
-        <v>1.421883477075751</v>
+        <v>0.1792978033379309</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -816,16 +816,16 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>-0.4971360833311735</v>
+        <v>1.061126378215483</v>
       </c>
       <c r="C25">
-        <v>1.337376224083199</v>
+        <v>-1.048829639589847</v>
       </c>
       <c r="D25">
-        <v>-1.403633795875477</v>
+        <v>1.569564226001644</v>
       </c>
       <c r="E25">
-        <v>-1.175607118941449</v>
+        <v>1.173346069793744</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -833,16 +833,16 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>-0.6163799349004144</v>
+        <v>-0.8635484945817162</v>
       </c>
       <c r="C26">
-        <v>-1.052999246467663</v>
+        <v>0.5664583882290346</v>
       </c>
       <c r="D26">
-        <v>1.125932470884845</v>
+        <v>-1.925862810632909</v>
       </c>
       <c r="E26">
-        <v>0.3777713158407852</v>
+        <v>-0.264876774022285</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -850,16 +850,16 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>-0.5307320830933719</v>
+        <v>1.461030808700688</v>
       </c>
       <c r="C27">
-        <v>-1.417852201440257</v>
+        <v>-0.9843426400438933</v>
       </c>
       <c r="D27">
-        <v>0.2162672493667328</v>
+        <v>-1.690532199755739</v>
       </c>
       <c r="E27">
-        <v>-1.306742012696025</v>
+        <v>-0.6499998519646115</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -867,16 +867,16 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>-0.352054911594391</v>
+        <v>0.2172817408605834</v>
       </c>
       <c r="C28">
-        <v>0.7815408847023604</v>
+        <v>-0.6107797217899609</v>
       </c>
       <c r="D28">
-        <v>-0.4500861918092851</v>
+        <v>-1.016635596254466</v>
       </c>
       <c r="E28">
-        <v>0.8988809271980212</v>
+        <v>1.073849365731916</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -884,16 +884,16 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>-1.162126038694441</v>
+        <v>-1.867799108530356</v>
       </c>
       <c r="C29">
-        <v>0.4742440092732121</v>
+        <v>1.729509574478828</v>
       </c>
       <c r="D29">
-        <v>0.9837777542705863</v>
+        <v>0.1675521470519414</v>
       </c>
       <c r="E29">
-        <v>-1.451611536413955</v>
+        <v>-0.5608829558106814</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -901,16 +901,16 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0.4392964514170909</v>
+        <v>0.09617584565183712</v>
       </c>
       <c r="C30">
-        <v>-1.223573869086662</v>
+        <v>-1.297390320175113</v>
       </c>
       <c r="D30">
-        <v>0.1341108175978332</v>
+        <v>0.4772201815601758</v>
       </c>
       <c r="E30">
-        <v>1.672508139521793</v>
+        <v>1.522118501330372</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -918,16 +918,16 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>-1.542186355096089</v>
+        <v>0.9704950856333956</v>
       </c>
       <c r="C31">
-        <v>-1.701108262519899</v>
+        <v>1.150632003094168</v>
       </c>
       <c r="D31">
-        <v>-1.969094608832974</v>
+        <v>0.2233678273349824</v>
       </c>
       <c r="E31">
-        <v>1.36011494445126</v>
+        <v>0.2693856891042143</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -935,16 +935,16 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>-0.4270017361801681</v>
+        <v>-1.499803260088223</v>
       </c>
       <c r="C32">
-        <v>0.4147013309023393</v>
+        <v>-0.5310958735750644</v>
       </c>
       <c r="D32">
-        <v>0.8240725206008581</v>
+        <v>-1.532463014989162</v>
       </c>
       <c r="E32">
-        <v>1.940977207278203</v>
+        <v>0.7865826475061675</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -952,16 +952,16 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>1.887922525466315</v>
+        <v>0.1520775741862654</v>
       </c>
       <c r="C33">
-        <v>0.001808563684787767</v>
+        <v>1.516280775012248</v>
       </c>
       <c r="D33">
-        <v>-0.5651822569183906</v>
+        <v>-0.7580177745790617</v>
       </c>
       <c r="E33">
-        <v>0.3045033179506218</v>
+        <v>-1.064609408667953</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -969,16 +969,16 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>0.3578774156327085</v>
+        <v>0.6898044308789899</v>
       </c>
       <c r="C34">
-        <v>-0.5026938162181327</v>
+        <v>-0.5004414916667799</v>
       </c>
       <c r="D34">
-        <v>0.06122771458219312</v>
+        <v>-0.6350004731026235</v>
       </c>
       <c r="E34">
-        <v>0.1396323898646168</v>
+        <v>1.621664813878342</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -986,16 +986,16 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>-1.073805652108569</v>
+        <v>1.108794821680181</v>
       </c>
       <c r="C35">
-        <v>1.034558611191987</v>
+        <v>-1.899978322010495</v>
       </c>
       <c r="D35">
-        <v>1.502171981728878</v>
+        <v>1.240061362133882</v>
       </c>
       <c r="E35">
-        <v>0.8041584746823891</v>
+        <v>-0.4589175408170911</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1003,16 +1003,16 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>0.3890331918063996</v>
+        <v>-1.143236194825922</v>
       </c>
       <c r="C36">
-        <v>1.980658151673694</v>
+        <v>0.8977008108581317</v>
       </c>
       <c r="D36">
-        <v>0.4982875334585</v>
+        <v>-0.6675169294617218</v>
       </c>
       <c r="E36">
-        <v>-0.993170253252289</v>
+        <v>0.511239146828407</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1020,16 +1020,16 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>-1.413883247611496</v>
+        <v>1.18443800501441</v>
       </c>
       <c r="C37">
-        <v>-1.278535957664889</v>
+        <v>-0.5605967116354871</v>
       </c>
       <c r="D37">
-        <v>1.37426046700311</v>
+        <v>-0.9456454821981288</v>
       </c>
       <c r="E37">
-        <v>-0.3949777442519027</v>
+        <v>0.8338599972250136</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1037,16 +1037,16 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>-1.695676758637569</v>
+        <v>1.528271554662453</v>
       </c>
       <c r="C38">
-        <v>-1.629728052556473</v>
+        <v>0.2638370903528813</v>
       </c>
       <c r="D38">
-        <v>-1.801092906674644</v>
+        <v>-1.498591729980043</v>
       </c>
       <c r="E38">
-        <v>0.2236953663723322</v>
+        <v>-1.535264183887616</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1054,16 +1054,16 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>1.012341711352633</v>
+        <v>-0.9729564068829288</v>
       </c>
       <c r="C39">
-        <v>0.1489232007132562</v>
+        <v>-0.8818644511720464</v>
       </c>
       <c r="D39">
-        <v>1.86791130627176</v>
+        <v>1.89825979788524</v>
       </c>
       <c r="E39">
-        <v>-0.6530851540645441</v>
+        <v>-1.688601815521312</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1071,16 +1071,16 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>-0.3636615415901658</v>
+        <v>1.956758769574212</v>
       </c>
       <c r="C40">
-        <v>-0.3599698571873853</v>
+        <v>-1.586420126141983</v>
       </c>
       <c r="D40">
-        <v>-0.3083496929516998</v>
+        <v>-0.806434259277812</v>
       </c>
       <c r="E40">
-        <v>0.08348853270837031</v>
+        <v>-1.88113059789768</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1088,16 +1088,16 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>0.8703964381228366</v>
+        <v>0.006392393086723125</v>
       </c>
       <c r="C41">
-        <v>0.7040910487935337</v>
+        <v>-0.3762215925428569</v>
       </c>
       <c r="D41">
-        <v>-0.3947333488908169</v>
+        <v>1.032905282683497</v>
       </c>
       <c r="E41">
-        <v>-0.8932278747492548</v>
+        <v>-0.1155008040902508</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1105,16 +1105,16 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>0.3064371596548328</v>
+        <v>1.862056905448443</v>
       </c>
       <c r="C42">
-        <v>-1.545313327719708</v>
+        <v>1.710843182011463</v>
       </c>
       <c r="D42">
-        <v>0.7718458235970154</v>
+        <v>1.107932337140983</v>
       </c>
       <c r="E42">
-        <v>-1.358943865009898</v>
+        <v>0.05076254791740986</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1122,16 +1122,16 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>-1.514970177939996</v>
+        <v>1.129525206355368</v>
       </c>
       <c r="C43">
-        <v>-0.7247379850122699</v>
+        <v>1.111410968564538</v>
       </c>
       <c r="D43">
-        <v>-0.06297863147298055</v>
+        <v>0.6738671766937125</v>
       </c>
       <c r="E43">
-        <v>-1.785515068868442</v>
+        <v>-1.64373644626692</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1139,16 +1139,16 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>-1.016343837028351</v>
+        <v>0.5177986259903395</v>
       </c>
       <c r="C44">
-        <v>-0.02292496672283217</v>
+        <v>1.361673156878188</v>
       </c>
       <c r="D44">
-        <v>-0.7551312358886744</v>
+        <v>1.947211782083012</v>
       </c>
       <c r="E44">
-        <v>0.255535537981201</v>
+        <v>-1.927714255566155</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1156,16 +1156,16 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>-0.7903394188018507</v>
+        <v>-0.2032996582676616</v>
       </c>
       <c r="C45">
-        <v>-0.04376120876535738</v>
+        <v>-1.779853078558572</v>
       </c>
       <c r="D45">
-        <v>0.01716973390931109</v>
+        <v>-1.867081887162395</v>
       </c>
       <c r="E45">
-        <v>-0.3427511922133943</v>
+        <v>0.2177141696572127</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1173,16 +1173,16 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>-1.655844567142464</v>
+        <v>-0.005662553358535494</v>
       </c>
       <c r="C46">
-        <v>-0.1867291654195773</v>
+        <v>0.3728013791281621</v>
       </c>
       <c r="D46">
-        <v>-1.694056943096699</v>
+        <v>-0.4526863167629085</v>
       </c>
       <c r="E46">
-        <v>-1.853824723194529</v>
+        <v>1.483440877429489</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1190,16 +1190,16 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>1.564713439279232</v>
+        <v>-1.576743805635372</v>
       </c>
       <c r="C47">
-        <v>0.9409183399519363</v>
+        <v>-1.714783345930952</v>
       </c>
       <c r="D47">
-        <v>-0.02903019921161354</v>
+        <v>1.16877255506453</v>
       </c>
       <c r="E47">
-        <v>0.01840210544833409</v>
+        <v>1.772086904502753</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1207,16 +1207,16 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>-0.5805247880294939</v>
+        <v>-0.1344803230207725</v>
       </c>
       <c r="C48">
-        <v>1.220271398492892</v>
+        <v>-1.825477495001471</v>
       </c>
       <c r="D48">
-        <v>-1.546547428268539</v>
+        <v>-0.8572625578802997</v>
       </c>
       <c r="E48">
-        <v>-0.1153274388387686</v>
+        <v>-1.088608734371919</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1224,16 +1224,16 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>1.085556725399753</v>
+        <v>1.020797010131495</v>
       </c>
       <c r="C49">
-        <v>1.695938900920863</v>
+        <v>0.8386669109526603</v>
       </c>
       <c r="D49">
-        <v>1.088179813932475</v>
+        <v>0.4352579776813519</v>
       </c>
       <c r="E49">
-        <v>0.3349303164989101</v>
+        <v>-0.120178884916661</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1241,16 +1241,16 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>1.360027162277137</v>
+        <v>-0.6925446724403637</v>
       </c>
       <c r="C50">
-        <v>-1.87099314763774</v>
+        <v>-0.9513589618600715</v>
       </c>
       <c r="D50">
-        <v>0.399267086134492</v>
+        <v>1.361170704013164</v>
       </c>
       <c r="E50">
-        <v>-0.5756743636112773</v>
+        <v>0.6545411439990407</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1258,16 +1258,16 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>0.159217211237257</v>
+        <v>-1.306284107929378</v>
       </c>
       <c r="C51">
-        <v>-0.9959685346430256</v>
+        <v>1.890152509933634</v>
       </c>
       <c r="D51">
-        <v>1.895837648969985</v>
+        <v>-1.750468939960946</v>
       </c>
       <c r="E51">
-        <v>-0.06186399252855779</v>
+        <v>0.7149827865481955</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1275,16 +1275,16 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>0.8310548737116523</v>
+        <v>-0.1918145385712442</v>
       </c>
       <c r="C52">
-        <v>0.6686596903341426</v>
+        <v>1.036189519442567</v>
       </c>
       <c r="D52">
-        <v>-0.8490861642704297</v>
+        <v>0.7602439251741293</v>
       </c>
       <c r="E52">
-        <v>-0.1411589974405458</v>
+        <v>1.743577875571476</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1292,16 +1292,16 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>1.62904330325373</v>
+        <v>0.2759859456642859</v>
       </c>
       <c r="C53">
-        <v>-1.382368174785678</v>
+        <v>-0.1017813545245188</v>
       </c>
       <c r="D53">
-        <v>1.746721440724365</v>
+        <v>1.462886177082282</v>
       </c>
       <c r="E53">
-        <v>-1.374326230180654</v>
+        <v>-1.43605833386972</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1309,16 +1309,16 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>-0.003371618343386507</v>
+        <v>-0.6542334917483561</v>
       </c>
       <c r="C54">
-        <v>-1.812470480942372</v>
+        <v>-0.6422895521552101</v>
       </c>
       <c r="D54">
-        <v>1.810617789661849</v>
+        <v>0.489667206518646</v>
       </c>
       <c r="E54">
-        <v>1.509114027747464</v>
+        <v>-0.3677553154227562</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1326,16 +1326,16 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>0.6444324722503638</v>
+        <v>1.377022067559956</v>
       </c>
       <c r="C55">
-        <v>1.887197463508915</v>
+        <v>-1.495093354353209</v>
       </c>
       <c r="D55">
-        <v>-0.8268686344127381</v>
+        <v>1.691316122287338</v>
       </c>
       <c r="E55">
-        <v>1.250606076294574</v>
+        <v>-0.4142767673544601</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1343,16 +1343,16 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>-0.7421831883863843</v>
+        <v>0.8581208877219462</v>
       </c>
       <c r="C56">
-        <v>0.8064750652142534</v>
+        <v>1.997768146917566</v>
       </c>
       <c r="D56">
-        <v>-1.022537334574681</v>
+        <v>-0.0568294303677721</v>
       </c>
       <c r="E56">
-        <v>0.7168447080867923</v>
+        <v>0.2969887032723939</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1360,16 +1360,16 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>-1.911644155187521</v>
+        <v>0.9432328149439235</v>
       </c>
       <c r="C57">
-        <v>1.293573720274809</v>
+        <v>0.7593900615650342</v>
       </c>
       <c r="D57">
-        <v>1.0126826149607</v>
+        <v>0.08937093446327715</v>
       </c>
       <c r="E57">
-        <v>-0.2459932417759134</v>
+        <v>1.684305371912064</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1377,16 +1377,16 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>-1.142328321220429</v>
+        <v>0.7321416539001913</v>
       </c>
       <c r="C58">
-        <v>1.637912302004233</v>
+        <v>0.1433326101388324</v>
       </c>
       <c r="D58">
-        <v>-1.186676969009451</v>
+        <v>0.9815306764302143</v>
       </c>
       <c r="E58">
-        <v>1.454508539943244</v>
+        <v>0.4011999653954286</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1394,16 +1394,16 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>0.2709218732954009</v>
+        <v>-1.223034919781359</v>
       </c>
       <c r="C59">
-        <v>0.8653897688948189</v>
+        <v>0.2318053833820861</v>
       </c>
       <c r="D59">
-        <v>-0.5411793667744969</v>
+        <v>0.1546555549831647</v>
       </c>
       <c r="E59">
-        <v>-1.211998332950635</v>
+        <v>-1.813582634222517</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1411,16 +1411,16 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>0.6243913109180612</v>
+        <v>0.8067218086257744</v>
       </c>
       <c r="C60">
-        <v>-0.4169457174131594</v>
+        <v>-1.168598087254075</v>
       </c>
       <c r="D60">
-        <v>-1.931806468667927</v>
+        <v>1.964182367491901</v>
       </c>
       <c r="E60">
-        <v>0.04232216543467793</v>
+        <v>0.1301360854242137</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1428,16 +1428,16 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>0.9766047726676748</v>
+        <v>-0.4499951627665033</v>
       </c>
       <c r="C61">
-        <v>-0.2770035359137091</v>
+        <v>1.817841436073135</v>
       </c>
       <c r="D61">
-        <v>-1.519813229689142</v>
+        <v>-1.432617283397113</v>
       </c>
       <c r="E61">
-        <v>1.799746318101629</v>
+        <v>0.02496375726338229</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1445,16 +1445,16 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>1.356666156648205</v>
+        <v>0.6796477274999653</v>
       </c>
       <c r="C62">
-        <v>-0.1002243606521438</v>
+        <v>1.477375724919629</v>
       </c>
       <c r="D62">
-        <v>0.950117089619797</v>
+        <v>-1.826217152086341</v>
       </c>
       <c r="E62">
-        <v>0.6685349753356</v>
+        <v>-0.4869885730286481</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1462,16 +1462,16 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>1.120038198512087</v>
+        <v>-1.064514260059597</v>
       </c>
       <c r="C63">
-        <v>1.525227882602142</v>
+        <v>-0.7268342057941921</v>
       </c>
       <c r="D63">
-        <v>0.6528741453988021</v>
+        <v>1.542718755495537</v>
       </c>
       <c r="E63">
-        <v>0.5422445142683081</v>
+        <v>-1.273474532871563</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1479,16 +1479,16 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>-0.2968747967004861</v>
+        <v>-1.321469613325868</v>
       </c>
       <c r="C64">
-        <v>-1.109673891164824</v>
+        <v>-0.445790616092282</v>
       </c>
       <c r="D64">
-        <v>0.3537453697636104</v>
+        <v>-0.3024810701971206</v>
       </c>
       <c r="E64">
-        <v>-0.7448613241098814</v>
+        <v>-1.295928921865562</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1496,16 +1496,16 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>1.988748131496957</v>
+        <v>-1.47756269625077</v>
       </c>
       <c r="C65">
-        <v>0.228203165057081</v>
+        <v>-1.216644986163306</v>
       </c>
       <c r="D65">
-        <v>-0.667910148196404</v>
+        <v>0.05218396528844771</v>
       </c>
       <c r="E65">
-        <v>-0.2084378208172617</v>
+        <v>-1.375278669468148</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1513,16 +1513,16 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>1.515896127382908</v>
+        <v>0.5961330041681703</v>
       </c>
       <c r="C66">
-        <v>0.5683253228753373</v>
+        <v>0.6765836970136485</v>
       </c>
       <c r="D66">
-        <v>0.9193671677883999</v>
+        <v>-0.3212336317668543</v>
       </c>
       <c r="E66">
-        <v>-1.132956331375989</v>
+        <v>-0.3538195067581045</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1530,16 +1530,16 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>-1.332083968295676</v>
+        <v>1.76649598184636</v>
       </c>
       <c r="C67">
-        <v>-0.5587454056228685</v>
+        <v>0.7609260161601168</v>
       </c>
       <c r="D67">
-        <v>1.768370011573556</v>
+        <v>-0.7008425617519907</v>
       </c>
       <c r="E67">
-        <v>-1.661965564732155</v>
+        <v>-1.180361808003024</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1547,16 +1547,16 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>-1.31550400271011</v>
+        <v>-0.5253546275089347</v>
       </c>
       <c r="C68">
-        <v>-0.6729584094491727</v>
+        <v>-0.05040319736691079</v>
       </c>
       <c r="D68">
-        <v>-0.1731138292746091</v>
+        <v>-1.373119180793275</v>
       </c>
       <c r="E68">
-        <v>-1.430476770660355</v>
+        <v>1.289753037510932</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1564,16 +1564,16 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>0.9287265001747729</v>
+        <v>-0.9326599403806941</v>
       </c>
       <c r="C69">
-        <v>-1.908090045854704</v>
+        <v>0.5458421412282601</v>
       </c>
       <c r="D69">
-        <v>0.2516610929019905</v>
+        <v>0.6283285910830112</v>
       </c>
       <c r="E69">
-        <v>1.227235864153579</v>
+        <v>1.972791161419839</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1581,16 +1581,16 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>-0.1824748149991271</v>
+        <v>-1.715745846509109</v>
       </c>
       <c r="C70">
-        <v>-0.2150165182409431</v>
+        <v>-1.964153915017443</v>
       </c>
       <c r="D70">
-        <v>-1.612414590431756</v>
+        <v>-0.0910307786057758</v>
       </c>
       <c r="E70">
-        <v>-0.5430970845741583</v>
+        <v>-0.9611210487964756</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1598,16 +1598,16 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>-0.9827942227844573</v>
+        <v>0.1684179446450851</v>
       </c>
       <c r="C71">
-        <v>-1.024847188668961</v>
+        <v>-1.331129815759959</v>
       </c>
       <c r="D71">
-        <v>-0.9355484403834118</v>
+        <v>-0.7727872549146246</v>
       </c>
       <c r="E71">
-        <v>-0.3054971954618637</v>
+        <v>-1.343760455311617</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1615,16 +1615,16 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>-1.599454452774869</v>
+        <v>1.428177639779311</v>
       </c>
       <c r="C72">
-        <v>0.6383923301483945</v>
+        <v>-0.3073900549443145</v>
       </c>
       <c r="D72">
-        <v>-0.5119627928296961</v>
+        <v>-0.02499977725076175</v>
       </c>
       <c r="E72">
-        <v>-0.4323311508306347</v>
+        <v>0.9941525911212188</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1632,16 +1632,16 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>0.5443317683385125</v>
+        <v>-0.311668971715731</v>
       </c>
       <c r="C73">
-        <v>1.789562681948884</v>
+        <v>-1.554526402172342</v>
       </c>
       <c r="D73">
-        <v>-1.325845653324865</v>
+        <v>-0.3635836001157253</v>
       </c>
       <c r="E73">
-        <v>0.4656710952294074</v>
+        <v>0.744406842755144</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1649,16 +1649,16 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>-1.236113897472037</v>
+        <v>-0.6097353619341046</v>
       </c>
       <c r="C74">
-        <v>-1.922767258464776</v>
+        <v>1.568919797276171</v>
       </c>
       <c r="D74">
-        <v>1.971874976358135</v>
+        <v>1.507351047898714</v>
       </c>
       <c r="E74">
-        <v>-1.831492714817028</v>
+        <v>1.263144050784077</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1666,16 +1666,16 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>-1.469611940034627</v>
+        <v>0.07799452802024343</v>
       </c>
       <c r="C75">
-        <v>0.9017877235241905</v>
+        <v>-1.420191755700589</v>
       </c>
       <c r="D75">
-        <v>0.7566475795356018</v>
+        <v>-1.341650317084013</v>
       </c>
       <c r="E75">
-        <v>-0.01278018778117751</v>
+        <v>-0.8544642591052107</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1683,16 +1683,16 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>1.947715934304492</v>
+        <v>-0.382876534643398</v>
       </c>
       <c r="C76">
-        <v>1.067349655266396</v>
+        <v>-0.2128477500075963</v>
       </c>
       <c r="D76">
-        <v>-1.442211993372309</v>
+        <v>0.9543968675431658</v>
       </c>
       <c r="E76">
-        <v>0.78367184964406</v>
+        <v>-0.2398966450387012</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1700,16 +1700,16 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>1.467098207814124</v>
+        <v>0.37163061194269</v>
       </c>
       <c r="C77">
-        <v>0.2892650128644565</v>
+        <v>-0.3368040805509991</v>
       </c>
       <c r="D77">
-        <v>1.709837159771601</v>
+        <v>0.0386712405137799</v>
       </c>
       <c r="E77">
-        <v>0.9520011820428369</v>
+        <v>1.890841099281444</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1717,16 +1717,16 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>0.7927274845000563</v>
+        <v>-0.09521347082308185</v>
       </c>
       <c r="C78">
-        <v>-1.324838884042288</v>
+        <v>1.172319962743366</v>
       </c>
       <c r="D78">
-        <v>-0.7077263909663822</v>
+        <v>-1.77556098664844</v>
       </c>
       <c r="E78">
-        <v>1.073934080018848</v>
+        <v>-0.7447662596375888</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1734,16 +1734,16 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>1.743342531013027</v>
+        <v>-1.098514328177424</v>
       </c>
       <c r="C79">
-        <v>-0.3842342489975772</v>
+        <v>1.295039321245649</v>
       </c>
       <c r="D79">
-        <v>1.958344036009811</v>
+        <v>-0.5065288863428175</v>
       </c>
       <c r="E79">
-        <v>0.5975299421062088</v>
+        <v>-1.229747980940137</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1751,16 +1751,16 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>0.4474241361541234</v>
+        <v>1.613980084847029</v>
       </c>
       <c r="C80">
-        <v>0.3318344145499545</v>
+        <v>-1.621833696116216</v>
       </c>
       <c r="D80">
-        <v>-0.08731168305943671</v>
+        <v>0.7237115326337831</v>
       </c>
       <c r="E80">
-        <v>1.581732451472257</v>
+        <v>1.379526694628171</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1768,16 +1768,16 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>0.1111413625670954</v>
+        <v>0.9086720709696117</v>
       </c>
       <c r="C81">
-        <v>0.3655733270794324</v>
+        <v>-0.004763249040586004</v>
       </c>
       <c r="D81">
-        <v>-1.395313827502261</v>
+        <v>1.317896412233957</v>
       </c>
       <c r="E81">
-        <v>-0.7937678359951541</v>
+        <v>0.8932723948220396</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1785,16 +1785,16 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>-0.9165739801720427</v>
+        <v>1.899704699695973</v>
       </c>
       <c r="C82">
-        <v>-1.76169470952536</v>
+        <v>-1.449916871832363</v>
       </c>
       <c r="D82">
-        <v>1.576270548244669</v>
+        <v>0.8614130728854601</v>
       </c>
       <c r="E82">
-        <v>1.894067190280316</v>
+        <v>-0.9334178343161961</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1802,16 +1802,16 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>1.272978029623339</v>
+        <v>-0.2704909707994632</v>
       </c>
       <c r="C83">
-        <v>1.263870501887746</v>
+        <v>-1.397716855793482</v>
       </c>
       <c r="D83">
-        <v>0.6826122133880181</v>
+        <v>-1.664978285396483</v>
       </c>
       <c r="E83">
-        <v>-1.588044496996229</v>
+        <v>1.6521198383208</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1819,16 +1819,16 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>1.809058891289675</v>
+        <v>-1.900714716533064</v>
       </c>
       <c r="C84">
-        <v>-1.497459583746178</v>
+        <v>-0.8552480044646216</v>
       </c>
       <c r="D84">
-        <v>-0.9953748834335432</v>
+        <v>-0.4364792807094122</v>
       </c>
       <c r="E84">
-        <v>-1.113221135872274</v>
+        <v>-0.3100905364456583</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1836,16 +1836,16 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>-1.107233439647393</v>
+        <v>1.246705561734247</v>
       </c>
       <c r="C85">
-        <v>1.586465570527385</v>
+        <v>0.289032834672041</v>
       </c>
       <c r="D85">
-        <v>-0.898421755575604</v>
+        <v>1.744627488845452</v>
       </c>
       <c r="E85">
-        <v>1.081586191499143</v>
+        <v>-0.7061119146940036</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1853,16 +1853,16 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>0.7422802448580406</v>
+        <v>1.819087219439526</v>
       </c>
       <c r="C86">
-        <v>1.129938556220575</v>
+        <v>-0.7189007318020719</v>
       </c>
       <c r="D86">
-        <v>1.546530709018152</v>
+        <v>-1.599231196076199</v>
       </c>
       <c r="E86">
-        <v>-0.9278216553378842</v>
+        <v>-0.8041321589504264</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1870,16 +1870,16 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>1.239201702530107</v>
+        <v>0.7733439161175157</v>
       </c>
       <c r="C87">
-        <v>0.9686142669678737</v>
+        <v>-1.036692833881883</v>
       </c>
       <c r="D87">
-        <v>-1.079721648877715</v>
+        <v>-1.083829106306722</v>
       </c>
       <c r="E87">
-        <v>-1.487512478478686</v>
+        <v>1.359307881698609</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1887,16 +1887,16 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>1.04123256844549</v>
+        <v>-0.8325849935419436</v>
       </c>
       <c r="C88">
-        <v>-0.3072111910263615</v>
+        <v>-0.8052835912272154</v>
       </c>
       <c r="D88">
-        <v>1.431021335694699</v>
+        <v>1.136229627144154</v>
       </c>
       <c r="E88">
-        <v>0.9849269117226473</v>
+        <v>-1.507584389956439</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1904,16 +1904,16 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>0.07910399981388938</v>
+        <v>-1.830130403089238</v>
       </c>
       <c r="C89">
-        <v>-0.8249075677550588</v>
+        <v>1.958450343738772</v>
       </c>
       <c r="D89">
-        <v>1.23033201024943</v>
+        <v>1.058500590551566</v>
       </c>
       <c r="E89">
-        <v>1.121988433004239</v>
+        <v>0.9438374733494692</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1921,16 +1921,16 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>0.5117016405887211</v>
+        <v>1.713435029129237</v>
       </c>
       <c r="C90">
-        <v>-1.147062821288467</v>
+        <v>1.425665153985384</v>
       </c>
       <c r="D90">
-        <v>-1.663186985292608</v>
+        <v>-1.96855022982402</v>
       </c>
       <c r="E90">
-        <v>1.037203881961949</v>
+        <v>-1.729871643039991</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -1938,16 +1938,16 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>-1.259789261149566</v>
+        <v>-1.634997208891952</v>
       </c>
       <c r="C91">
-        <v>-1.57571239099017</v>
+        <v>-1.119123107988121</v>
       </c>
       <c r="D91">
-        <v>1.046471681432618</v>
+        <v>-1.061992040924711</v>
       </c>
       <c r="E91">
-        <v>0.8533136357541333</v>
+        <v>-0.7673071987365632</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -1955,16 +1955,16 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>1.681965468521714</v>
+        <v>-1.434440086003365</v>
       </c>
       <c r="C92">
-        <v>0.194701074966976</v>
+        <v>0.7158301248292798</v>
       </c>
       <c r="D92">
-        <v>0.1791866425264725</v>
+        <v>1.764834611994321</v>
       </c>
       <c r="E92">
-        <v>-1.900237871163249</v>
+        <v>1.476813879202254</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -1972,16 +1972,16 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>0.9074354396030122</v>
+        <v>1.236940594625175</v>
       </c>
       <c r="C93">
-        <v>0.2530168692956227</v>
+        <v>0.9851808933560919</v>
       </c>
       <c r="D93">
-        <v>1.474552443587369</v>
+        <v>1.874551827234196</v>
       </c>
       <c r="E93">
-        <v>0.4844568189752874</v>
+        <v>-0.1996655367415789</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -1989,16 +1989,16 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>0.2018119231148199</v>
+        <v>1.73474330566573</v>
       </c>
       <c r="C94">
-        <v>-1.97784085856481</v>
+        <v>0.6273983207894513</v>
       </c>
       <c r="D94">
-        <v>-0.2097226885318191</v>
+        <v>-0.2012760275249179</v>
       </c>
       <c r="E94">
-        <v>-1.071182517038912</v>
+        <v>-0.03952197329722917</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2006,16 +2006,16 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>-1.976537377052907</v>
+        <v>-0.5177112267824506</v>
       </c>
       <c r="C95">
-        <v>-0.6814404243133776</v>
+        <v>1.875719722508688</v>
       </c>
       <c r="D95">
-        <v>0.09766748903214451</v>
+        <v>-0.9684016678692982</v>
       </c>
       <c r="E95">
-        <v>-0.1947027644456469</v>
+        <v>0.1132546483792805</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2023,16 +2023,16 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>-1.373260624715307</v>
+        <v>-1.763109032198242</v>
       </c>
       <c r="C96">
-        <v>1.82666499441209</v>
+        <v>-1.930081665001124</v>
       </c>
       <c r="D96">
-        <v>1.645459053725624</v>
+        <v>0.5876347562069246</v>
       </c>
       <c r="E96">
-        <v>-1.757863758822749</v>
+        <v>0.5763879697047285</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2040,16 +2040,16 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>-1.868029489824989</v>
+        <v>-1.659646962335351</v>
       </c>
       <c r="C97">
-        <v>-0.6377597184781394</v>
+        <v>-0.4021691505179295</v>
       </c>
       <c r="D97">
-        <v>0.5750844774215427</v>
+        <v>-0.5926900350347544</v>
       </c>
       <c r="E97">
-        <v>1.623756798453432</v>
+        <v>-1.846014057501997</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2057,16 +2057,16 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>-0.07100164833488853</v>
+        <v>-1.260724696408843</v>
       </c>
       <c r="C98">
-        <v>0.5412154787388666</v>
+        <v>0.09098945578693973</v>
       </c>
       <c r="D98">
-        <v>1.608647795218171</v>
+        <v>-1.314083020480765</v>
       </c>
       <c r="E98">
-        <v>1.684953955787441</v>
+        <v>-1.988277276096196</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2074,16 +2074,16 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>1.653471968311442</v>
+        <v>0.2928215423457248</v>
       </c>
       <c r="C99">
-        <v>-1.727242461161577</v>
+        <v>0.4989336854617488</v>
       </c>
       <c r="D99">
-        <v>0.5345901828952315</v>
+        <v>-0.1825262860459715</v>
       </c>
       <c r="E99">
-        <v>-0.6299647063015685</v>
+        <v>1.588727254757353</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2091,16 +2091,16 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>0.1749344199556111</v>
+        <v>-1.753351359789467</v>
       </c>
       <c r="C100">
-        <v>0.7585244943060654</v>
+        <v>0.1666909765052131</v>
       </c>
       <c r="D100">
-        <v>-0.268103024495552</v>
+        <v>-1.247630271758671</v>
       </c>
       <c r="E100">
-        <v>1.814949551806933</v>
+        <v>-1.00977675394121</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2108,16 +2108,16 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>-1.783792065820769</v>
+        <v>-0.32237123568216</v>
       </c>
       <c r="C101">
-        <v>1.84534103311924</v>
+        <v>0.44682672910763</v>
       </c>
       <c r="D101">
-        <v>1.174810592475022</v>
+        <v>1.646119160189104</v>
       </c>
       <c r="E101">
-        <v>-0.4604858607633515</v>
+        <v>1.035990353413962</v>
       </c>
     </row>
   </sheetData>
@@ -2152,16 +2152,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-108.0069673711141</v>
+        <v>-0.1936132813236275</v>
       </c>
       <c r="C2">
-        <v>0.004049607107273264</v>
+        <v>2.860082888047713</v>
       </c>
       <c r="D2">
-        <v>264.8753995914606</v>
+        <v>-4.845876280887664</v>
       </c>
       <c r="E2">
-        <v>34.71904382881682</v>
+        <v>0.8254534748728261</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2169,16 +2169,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.0008576363558889936</v>
+        <v>-4.170919779119508</v>
       </c>
       <c r="C3">
-        <v>7.033798758440598</v>
+        <v>12.66818938253328</v>
       </c>
       <c r="D3">
-        <v>-17.33740810975518</v>
+        <v>0.4635367200321068</v>
       </c>
       <c r="E3">
-        <v>32.10646656774018</v>
+        <v>5.057661941666058</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2186,16 +2186,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-0.1676004609221106</v>
+        <v>4.824846030539774</v>
       </c>
       <c r="C4">
-        <v>-0.0041449641567377</v>
+        <v>-0.001978522493821807</v>
       </c>
       <c r="D4">
-        <v>-6.52061502501265</v>
+        <v>12.29313080015415</v>
       </c>
       <c r="E4">
-        <v>0.05684145832372425</v>
+        <v>-16.07190734939801</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2203,16 +2203,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-0.107422027079062</v>
+        <v>2.004914033402852</v>
       </c>
       <c r="C5">
-        <v>-59.45333763613677</v>
+        <v>0.02127204053255763</v>
       </c>
       <c r="D5">
-        <v>-1.507609143801989</v>
+        <v>-0.007745948347386934</v>
       </c>
       <c r="E5">
-        <v>0.1655235442462059</v>
+        <v>-2.750918867081451</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2220,16 +2220,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-6.437518046971475</v>
+        <v>115.4208970132025</v>
       </c>
       <c r="C6">
-        <v>0.001188264027284737</v>
+        <v>-64.29761518985303</v>
       </c>
       <c r="D6">
-        <v>-26.1565308771809</v>
+        <v>0.09392159722197915</v>
       </c>
       <c r="E6">
-        <v>83.53282734394307</v>
+        <v>-16.92869029978866</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2237,16 +2237,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.02117965556020796</v>
+        <v>-11.71603184431076</v>
       </c>
       <c r="C7">
-        <v>2098.768809734004</v>
+        <v>-5.679529754022706</v>
       </c>
       <c r="D7">
-        <v>-1660.285986275573</v>
+        <v>4.652995289157004</v>
       </c>
       <c r="E7">
-        <v>-303.6790890639967</v>
+        <v>75.86997556485011</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2254,16 +2254,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>31.4601592783911</v>
+        <v>30.86771188922084</v>
       </c>
       <c r="C8">
-        <v>-30.41680918208473</v>
+        <v>-0.008390472187600671</v>
       </c>
       <c r="D8">
-        <v>10.8734439434203</v>
+        <v>0.07096256953926439</v>
       </c>
       <c r="E8">
-        <v>0.0005651369684010958</v>
+        <v>-2.912415638251855</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2271,16 +2271,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-2.22303467957997</v>
+        <v>0.3345382715551811</v>
       </c>
       <c r="C9">
-        <v>0.002041387304143306</v>
+        <v>0.6025521241781641</v>
       </c>
       <c r="D9">
-        <v>2.123366612837303</v>
+        <v>1.102626378442042</v>
       </c>
       <c r="E9">
-        <v>72.80241291235619</v>
+        <v>0.000387365112549461</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2288,16 +2288,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.003616231299259995</v>
+        <v>-2.549007354582329e-06</v>
       </c>
       <c r="C10">
-        <v>-0.07085341995877298</v>
+        <v>-3.802894664596004</v>
       </c>
       <c r="D10">
-        <v>0.7287669753663096</v>
+        <v>116.4381018009087</v>
       </c>
       <c r="E10">
-        <v>2.431039407749443</v>
+        <v>0.1333484013675877</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2305,16 +2305,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>12.84564418174819</v>
+        <v>0.01564743247969736</v>
       </c>
       <c r="C11">
-        <v>42.70810455375596</v>
+        <v>-0.1241424581174385</v>
       </c>
       <c r="D11">
-        <v>2.122265605413218</v>
+        <v>1.987782506456148</v>
       </c>
       <c r="E11">
-        <v>79.37042149642249</v>
+        <v>2.098120963672099</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2322,16 +2322,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-122.2643182618285</v>
+        <v>0.2594728645588221</v>
       </c>
       <c r="C12">
-        <v>0.009225777272209388</v>
+        <v>19.37084597782398</v>
       </c>
       <c r="D12">
-        <v>175.6868714628164</v>
+        <v>107.4422221819701</v>
       </c>
       <c r="E12">
-        <v>-75.39319414180932</v>
+        <v>0.01129398403345592</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2339,16 +2339,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-1.422733953754398</v>
+        <v>0.01122198127884007</v>
       </c>
       <c r="C13">
-        <v>3.815606483518931</v>
+        <v>-2.174061932883045</v>
       </c>
       <c r="D13">
-        <v>36.30902118594653</v>
+        <v>5.834931780219982</v>
       </c>
       <c r="E13">
-        <v>54.76365923836033</v>
+        <v>-0.0009245104968190356</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2356,16 +2356,16 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1.222025549643107</v>
+        <v>-11.43253081221816</v>
       </c>
       <c r="C14">
-        <v>-0.04988295896557336</v>
+        <v>18.24187482097465</v>
       </c>
       <c r="D14">
-        <v>0.1657434695171987</v>
+        <v>5.324263453499393</v>
       </c>
       <c r="E14">
-        <v>-3.594103221970603</v>
+        <v>5.543771298452696</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2373,16 +2373,16 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.3347933435693596</v>
+        <v>30.33079732983717</v>
       </c>
       <c r="C15">
-        <v>0.6024648220731592</v>
+        <v>1.528676175177582</v>
       </c>
       <c r="D15">
-        <v>1.102042824203453</v>
+        <v>55.43498257129267</v>
       </c>
       <c r="E15">
-        <v>0.0006236975506237359</v>
+        <v>2.297543103617384</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2390,16 +2390,16 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>35.2654874804302</v>
+        <v>0.3666152866504667</v>
       </c>
       <c r="C16">
-        <v>169.6021192801752</v>
+        <v>0.6036705577474205</v>
       </c>
       <c r="D16">
-        <v>8.477235066169213</v>
+        <v>0.7782629868658741</v>
       </c>
       <c r="E16">
-        <v>-7.367999322656168</v>
+        <v>0.0002487664350428081</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2407,16 +2407,16 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1.221891353661059</v>
+        <v>-0.03312507091682556</v>
       </c>
       <c r="C17">
-        <v>0.5703237796233169</v>
+        <v>31.54850203866035</v>
       </c>
       <c r="D17">
-        <v>-1.709780698336437</v>
+        <v>0.04462914851848526</v>
       </c>
       <c r="E17">
-        <v>-1.810046592459631</v>
+        <v>-1.318998228684436</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2424,16 +2424,16 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-1.836450284879223</v>
+        <v>8.182979345997712</v>
       </c>
       <c r="C18">
-        <v>62.8767700094226</v>
+        <v>-8.802469866389529</v>
       </c>
       <c r="D18">
-        <v>0.1799469150252427</v>
+        <v>-0.005612236631689914</v>
       </c>
       <c r="E18">
-        <v>-0.0001415292567473507</v>
+        <v>-14.30504770345821</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2441,16 +2441,16 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>-2.402943353734941</v>
+        <v>2.580497428422541</v>
       </c>
       <c r="C19">
-        <v>44.53439659643279</v>
+        <v>0.5381329528045249</v>
       </c>
       <c r="D19">
-        <v>-0.01328063671396947</v>
+        <v>-7.112628116316194</v>
       </c>
       <c r="E19">
-        <v>2.399261227876057</v>
+        <v>-0.01105262809547651</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2458,16 +2458,16 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>-1.73373023370936</v>
+        <v>-0.4898546968864605</v>
       </c>
       <c r="C20">
-        <v>6.511830987068173</v>
+        <v>0.5366783429611748</v>
       </c>
       <c r="D20">
-        <v>-5.056439703775633</v>
+        <v>27.44244601489232</v>
       </c>
       <c r="E20">
-        <v>2.422552829496419</v>
+        <v>34.46105212765872</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2475,16 +2475,16 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1.281601882602803</v>
+        <v>-61.90267839852929</v>
       </c>
       <c r="C21">
-        <v>-0.791837002684415</v>
+        <v>211.7266493233561</v>
       </c>
       <c r="D21">
-        <v>1.028516021390804</v>
+        <v>0.007227806658223592</v>
       </c>
       <c r="E21">
-        <v>-1.565899534689873</v>
+        <v>-26.45757477550662</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2492,16 +2492,16 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>-8.897878042279366</v>
+        <v>-5.627240996278923</v>
       </c>
       <c r="C22">
-        <v>-47.24110516751909</v>
+        <v>-0.1209536750203555</v>
       </c>
       <c r="D22">
-        <v>106.1576875399289</v>
+        <v>-8.026138759236062</v>
       </c>
       <c r="E22">
-        <v>0.01427658454268679</v>
+        <v>0.2859542666571275</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2509,16 +2509,16 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>75.57992736315779</v>
+        <v>-1.497686652832811</v>
       </c>
       <c r="C23">
-        <v>99.50622180192804</v>
+        <v>0.0006660984613238493</v>
       </c>
       <c r="D23">
-        <v>-96.65793093954412</v>
+        <v>5.055239620797415</v>
       </c>
       <c r="E23">
-        <v>24.99675385430385</v>
+        <v>-2.035245505631329</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2526,16 +2526,16 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>-6.287330541974674</v>
+        <v>17.81046723130063</v>
       </c>
       <c r="C24">
-        <v>0.00318728993356144</v>
+        <v>-0.01917150423060219</v>
       </c>
       <c r="D24">
-        <v>9.411121017569858</v>
+        <v>-24.38193866521801</v>
       </c>
       <c r="E24">
-        <v>-3.608470908370605</v>
+        <v>-38.50455163035343</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2543,16 +2543,16 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>-25.58422125131714</v>
+        <v>0.1140733624529427</v>
       </c>
       <c r="C25">
-        <v>0.008320400621138082</v>
+        <v>1.6615600385139</v>
       </c>
       <c r="D25">
-        <v>-52.81031973111222</v>
+        <v>0.0184768564263331</v>
       </c>
       <c r="E25">
-        <v>211.6749597276414</v>
+        <v>-0.177859797908518</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2560,16 +2560,16 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>11.40322078796756</v>
+        <v>43.60624957539494</v>
       </c>
       <c r="C26">
-        <v>85.69707983056199</v>
+        <v>1.127824448679857</v>
       </c>
       <c r="D26">
-        <v>0.01830540432368209</v>
+        <v>-39.61725492922108</v>
       </c>
       <c r="E26">
-        <v>1.320631551916791</v>
+        <v>30.33861948642318</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2577,16 +2577,16 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>118.8566310237852</v>
+        <v>0.006581935026443346</v>
       </c>
       <c r="C27">
-        <v>384.9131034325741</v>
+        <v>-6.747933594158052</v>
       </c>
       <c r="D27">
-        <v>17.40569882423881</v>
+        <v>-8.46314667672673</v>
       </c>
       <c r="E27">
-        <v>-402.9847387035821</v>
+        <v>34.54677458553819</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2594,16 +2594,16 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>-20.60755986554534</v>
+        <v>2.900333638529503</v>
       </c>
       <c r="C28">
-        <v>1.089226581658092</v>
+        <v>0.6864405558986439</v>
       </c>
       <c r="D28">
-        <v>75.00302793421463</v>
+        <v>98.71710330231556</v>
       </c>
       <c r="E28">
-        <v>-0.406779944259445</v>
+        <v>0.03088446631354389</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2611,16 +2611,16 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>3.541199703054079</v>
+        <v>1.209261455520615</v>
       </c>
       <c r="C29">
-        <v>-0.3034532872090256</v>
+        <v>0.0002078283879737271</v>
       </c>
       <c r="D29">
-        <v>0.07824309115314122</v>
+        <v>21.7084042865563</v>
       </c>
       <c r="E29">
-        <v>186.6414570062144</v>
+        <v>86.8434374182508</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2628,16 +2628,16 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>7.216240628207058</v>
+        <v>-48.60009858307789</v>
       </c>
       <c r="C30">
-        <v>29.34152651597551</v>
+        <v>100.7528450272593</v>
       </c>
       <c r="D30">
-        <v>-66.82685576126937</v>
+        <v>3.078983553176508</v>
       </c>
       <c r="E30">
-        <v>-0.0004250976334309074</v>
+        <v>-0.0001434597757417982</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2645,16 +2645,16 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>784.5707034765219</v>
+        <v>0.8084068117254638</v>
       </c>
       <c r="C31">
-        <v>-1354.986363297776</v>
+        <v>-0.2015872882505361</v>
       </c>
       <c r="D31">
-        <v>1007.086242519382</v>
+        <v>28.29743504061603</v>
       </c>
       <c r="E31">
-        <v>0.008690813596559023</v>
+        <v>-35.79771025009695</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2662,16 +2662,16 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>3.749869424777002</v>
+        <v>11.66353981365848</v>
       </c>
       <c r="C32">
-        <v>-5.732859703437715</v>
+        <v>28.70740981391438</v>
       </c>
       <c r="D32">
-        <v>0.694733790821247</v>
+        <v>89.15197016690588</v>
       </c>
       <c r="E32">
-        <v>-0.0001636829186896249</v>
+        <v>0.23689477179159</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2679,16 +2679,16 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0.001294757840033428</v>
+        <v>16.72330829375327</v>
       </c>
       <c r="C33">
-        <v>5.578664762137052</v>
+        <v>0.001255039903419671</v>
       </c>
       <c r="D33">
-        <v>-0.5339209287877414</v>
+        <v>72.96454891510869</v>
       </c>
       <c r="E33">
-        <v>-3.65743624252489</v>
+        <v>35.70626925438255</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2696,16 +2696,16 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>17.61102901872224</v>
+        <v>0.512427745349363</v>
       </c>
       <c r="C34">
-        <v>126.8167248135702</v>
+        <v>-1.363767227788882</v>
       </c>
       <c r="D34">
-        <v>1107.797690921275</v>
+        <v>59.70675209903689</v>
       </c>
       <c r="E34">
-        <v>-418.4887089696124</v>
+        <v>-0.0003999063564507079</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2713,16 +2713,16 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>-2.527319249722844</v>
+        <v>-0.04427355133230338</v>
       </c>
       <c r="C35">
-        <v>0.8060430290909408</v>
+        <v>-1.825577775077267</v>
       </c>
       <c r="D35">
-        <v>-0.01535666924076244</v>
+        <v>0.03127102391779635</v>
       </c>
       <c r="E35">
-        <v>-2.051086536465293</v>
+        <v>3.230709783169985</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2730,16 +2730,16 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>-14.04075639617688</v>
+        <v>-56.79429567416146</v>
       </c>
       <c r="C36">
-        <v>-4.785324361805287e-05</v>
+        <v>-0.02166526030473154</v>
       </c>
       <c r="D36">
-        <v>8.052089433750204</v>
+        <v>94.66598171240395</v>
       </c>
       <c r="E36">
-        <v>58.41453540999616</v>
+        <v>1.692707278141875</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2747,16 +2747,16 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>-0.8632803968137508</v>
+        <v>-0.01513397410389549</v>
       </c>
       <c r="C37">
-        <v>-5.408360922679819</v>
+        <v>25.15261976488516</v>
       </c>
       <c r="D37">
-        <v>0.01138992204978878</v>
+        <v>44.35061839695146</v>
       </c>
       <c r="E37">
-        <v>25.40392993353301</v>
+        <v>0.2877657036915104</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2764,16 +2764,16 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>267.7734986862964</v>
+        <v>0.002596731665687791</v>
       </c>
       <c r="C38">
-        <v>1056.39883818352</v>
+        <v>1.512801581179833</v>
       </c>
       <c r="D38">
-        <v>-1076.034538900959</v>
+        <v>-4.830455160158809</v>
       </c>
       <c r="E38">
-        <v>7.547473979261342</v>
+        <v>267.7940635940902</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2781,16 +2781,16 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>0.1161983107272387</v>
+        <v>245.0236015608269</v>
       </c>
       <c r="C39">
-        <v>-9.797097128091513</v>
+        <v>-202.9789792537381</v>
       </c>
       <c r="D39">
-        <v>-0.0002508304486430039</v>
+        <v>0.0002719956840157066</v>
       </c>
       <c r="E39">
-        <v>25.47342507610658</v>
+        <v>-20.1109024787789</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2798,16 +2798,16 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>-0.6090892866163358</v>
+        <v>0.0003306781328010283</v>
       </c>
       <c r="C40">
-        <v>0.9156186853184226</v>
+        <v>0.2210649497504023</v>
       </c>
       <c r="D40">
-        <v>-2.320568085384319</v>
+        <v>9.468058309397518</v>
       </c>
       <c r="E40">
-        <v>8.240354115268762</v>
+        <v>-5.105672937615131</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2815,16 +2815,16 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>-0.3630679222453754</v>
+        <v>-144.0501276637553</v>
       </c>
       <c r="C41">
-        <v>1.444344719566855</v>
+        <v>144.1985215536318</v>
       </c>
       <c r="D41">
-        <v>47.84348870804013</v>
+        <v>0.02834899075494345</v>
       </c>
       <c r="E41">
-        <v>20.08156574257011</v>
+        <v>-184.1771139912038</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2832,16 +2832,16 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>-2.669793385612086</v>
+        <v>-0.009976136470842192</v>
       </c>
       <c r="C42">
-        <v>-162.2385738262297</v>
+        <v>0.03124076618401964</v>
       </c>
       <c r="D42">
-        <v>0.3479024969882327</v>
+        <v>-0.1847583818092996</v>
       </c>
       <c r="E42">
-        <v>249.5531344233583</v>
+        <v>4.793828693700711</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2849,16 +2849,16 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>80.87148600477529</v>
+        <v>0.6244865727219238</v>
       </c>
       <c r="C43">
-        <v>142.070854687607</v>
+        <v>-0.5748513825883492</v>
       </c>
       <c r="D43">
-        <v>-171.7334652207461</v>
+        <v>-0.8673999154024188</v>
       </c>
       <c r="E43">
-        <v>-51.39418207442228</v>
+        <v>2.804025415935439</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2866,16 +2866,16 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>-142.3711002038325</v>
+        <v>-1.649097322609269</v>
       </c>
       <c r="C44">
-        <v>-68.74059180855021</v>
+        <v>0.03452447507004888</v>
       </c>
       <c r="D44">
-        <v>205.5142082240427</v>
+        <v>-0.0005183088483784802</v>
       </c>
       <c r="E44">
-        <v>8.51625620461332</v>
+        <v>9.639850553992753</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2883,16 +2883,16 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>-72.87910775315611</v>
+        <v>100.6163603179</v>
       </c>
       <c r="C45">
-        <v>-268.3636808995624</v>
+        <v>860.243115471596</v>
       </c>
       <c r="D45">
-        <v>589.2800130227382</v>
+        <v>-881.5568298313375</v>
       </c>
       <c r="E45">
-        <v>238.806517101659</v>
+        <v>22.49088395454222</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2900,16 +2900,16 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>-112.3909467905747</v>
+        <v>2.242833893024097</v>
       </c>
       <c r="C46">
-        <v>-55.64966202683561</v>
+        <v>4.590921744530472</v>
       </c>
       <c r="D46">
-        <v>1951.343616301214</v>
+        <v>69.50350709815329</v>
       </c>
       <c r="E46">
-        <v>-1203.074516249374</v>
+        <v>-0.0002337489343013588</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2917,16 +2917,16 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>-0.002559121463927598</v>
+        <v>0.1319858300770507</v>
       </c>
       <c r="C47">
-        <v>0.2403723262221034</v>
+        <v>1.506682882113796</v>
       </c>
       <c r="D47">
-        <v>111.1549000793719</v>
+        <v>-0.05983569018515372</v>
       </c>
       <c r="E47">
-        <v>-137.0819670385572</v>
+        <v>0.004002552987526881</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2934,16 +2934,16 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>98.05217560865111</v>
+        <v>-127.0011073788369</v>
       </c>
       <c r="C48">
-        <v>0.01247310048467842</v>
+        <v>11.17818685638845</v>
       </c>
       <c r="D48">
-        <v>-13.10794790862881</v>
+        <v>423.761425942287</v>
       </c>
       <c r="E48">
-        <v>-78.83413593596904</v>
+        <v>-310.5293705111765</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2951,16 +2951,16 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>-1.355152738682667</v>
+        <v>0.9788833347478407</v>
       </c>
       <c r="C49">
-        <v>-0.001840298533306136</v>
+        <v>-4.519319453346278</v>
       </c>
       <c r="D49">
-        <v>1.482970410743897</v>
+        <v>29.85961318488203</v>
       </c>
       <c r="E49">
-        <v>-5.968957532892057</v>
+        <v>303.7046085993202</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2968,16 +2968,16 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>2.565862671926864e-05</v>
+        <v>8.153141052053776</v>
       </c>
       <c r="C50">
-        <v>14.78886010219894</v>
+        <v>75.97522598138652</v>
       </c>
       <c r="D50">
-        <v>3.20470805280735</v>
+        <v>0.001186883175047206</v>
       </c>
       <c r="E50">
-        <v>69.35437697506492</v>
+        <v>0.4235767403985576</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2985,16 +2985,16 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>0.2592002950074042</v>
+        <v>-0.09659947902975086</v>
       </c>
       <c r="C51">
-        <v>0.7340603079246812</v>
+        <v>0.0006904341145708382</v>
       </c>
       <c r="D51">
-        <v>0.0003131790532754934</v>
+        <v>-1.64992710806588</v>
       </c>
       <c r="E51">
-        <v>1.206089309048964</v>
+        <v>-0.1256176140875625</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -3002,16 +3002,16 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>-0.2347233003076391</v>
+        <v>1.110746912704736</v>
       </c>
       <c r="C52">
-        <v>1.150887258488819</v>
+        <v>0.4648163683926676</v>
       </c>
       <c r="D52">
-        <v>69.88372888479344</v>
+        <v>-1.593040069950766</v>
       </c>
       <c r="E52">
-        <v>18.04277736425675</v>
+        <v>-0.001711104745713019</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -3019,16 +3019,16 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>0.0106634855266898</v>
+        <v>-1.576107858030412</v>
       </c>
       <c r="C53">
-        <v>134.8927861197464</v>
+        <v>-33.18987203578325</v>
       </c>
       <c r="D53">
-        <v>-0.004662027678440832</v>
+        <v>0.004431668350980912</v>
       </c>
       <c r="E53">
-        <v>19.04816445373724</v>
+        <v>246.6876535421965</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3036,16 +3036,16 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>-0.8203942711469343</v>
+        <v>-18.14343379251174</v>
       </c>
       <c r="C54">
-        <v>2.271450439849708</v>
+        <v>49.29212575291513</v>
       </c>
       <c r="D54">
-        <v>0.0060325686519216</v>
+        <v>1.855967475239631</v>
       </c>
       <c r="E54">
-        <v>-0.02284249797579206</v>
+        <v>31.11628356901486</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3053,16 +3053,16 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>-1.063772088137638</v>
+        <v>-0.03539984286819806</v>
       </c>
       <c r="C55">
-        <v>-0.0006803528560649821</v>
+        <v>0.267926133870856</v>
       </c>
       <c r="D55">
-        <v>6.270542512011584</v>
+        <v>0.009035997027603191</v>
       </c>
       <c r="E55">
-        <v>0.0719585969278897</v>
+        <v>2.384463679150941</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -3070,16 +3070,16 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>122.2647551580655</v>
+        <v>0.4416241965496009</v>
       </c>
       <c r="C56">
-        <v>-0.7481090277627817</v>
+        <v>-0.0001043375375339014</v>
       </c>
       <c r="D56">
-        <v>-72.88387806833964</v>
+        <v>7.516752613018399</v>
       </c>
       <c r="E56">
-        <v>1.658766240315058</v>
+        <v>-9.064220774215986</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3087,16 +3087,16 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>-0.3098774506598115</v>
+        <v>-0.02126404208391837</v>
       </c>
       <c r="C57">
-        <v>0.0525939257508818</v>
+        <v>-0.2855299795929522</v>
       </c>
       <c r="D57">
-        <v>-0.1755954694184365</v>
+        <v>0.6719948133726998</v>
       </c>
       <c r="E57">
-        <v>4.386425225913749</v>
+        <v>0.004571806356870893</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -3104,16 +3104,16 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>0.3923172588022401</v>
+        <v>4.796621800648995</v>
       </c>
       <c r="C58">
-        <v>0.02254948699820464</v>
+        <v>15.98786583228333</v>
       </c>
       <c r="D58">
-        <v>0.8101483841095962</v>
+        <v>-0.5371250005325146</v>
       </c>
       <c r="E58">
-        <v>-0.05093024731162962</v>
+        <v>-20.47722760296741</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -3121,16 +3121,16 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>-0.3931095224221615</v>
+        <v>75.19108648934247</v>
       </c>
       <c r="C59">
-        <v>0.1793698506428864</v>
+        <v>82.12907261240377</v>
       </c>
       <c r="D59">
-        <v>44.98908704161993</v>
+        <v>-157.501779986495</v>
       </c>
       <c r="E59">
-        <v>-31.1871171443891</v>
+        <v>-20.29347920938822</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3138,16 +3138,16 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>0.2543822713262949</v>
+        <v>0.4441086277747618</v>
       </c>
       <c r="C60">
-        <v>103.4255275189793</v>
+        <v>20.90049969905893</v>
       </c>
       <c r="D60">
-        <v>-38.11901382348826</v>
+        <v>-9.629191531036284e-05</v>
       </c>
       <c r="E60">
-        <v>169.5871333552225</v>
+        <v>-28.57458258487053</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -3155,16 +3155,16 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>0.02098785605043123</v>
+        <v>106.9333780407855</v>
       </c>
       <c r="C61">
-        <v>-11.6110773974616</v>
+        <v>0.0001566986924793499</v>
       </c>
       <c r="D61">
-        <v>300.3606919957025</v>
+        <v>10.28054020481487</v>
       </c>
       <c r="E61">
-        <v>0.0004321429242530398</v>
+        <v>358.2951938256483</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3172,16 +3172,16 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>-0.03660545476396315</v>
+        <v>-0.07140398211637526</v>
       </c>
       <c r="C62">
-        <v>-3.217692053258214</v>
+        <v>0.006804192847336441</v>
       </c>
       <c r="D62">
-        <v>1.102983191526655</v>
+        <v>-5.730151876063857</v>
       </c>
       <c r="E62">
-        <v>-3.496753292982198</v>
+        <v>18.86765946209712</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -3189,16 +3189,16 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>0.2054908097824837</v>
+        <v>-50.98716180035626</v>
       </c>
       <c r="C63">
-        <v>-0.009890877962716656</v>
+        <v>-38.80779266400238</v>
       </c>
       <c r="D63">
-        <v>0.3931090591885323</v>
+        <v>0.002864206588481705</v>
       </c>
       <c r="E63">
-        <v>-3.208095902953848</v>
+        <v>307.127286184122</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -3206,16 +3206,16 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>18.67980625887702</v>
+        <v>-113.0655612800422</v>
       </c>
       <c r="C64">
-        <v>-39.16542556137834</v>
+        <v>458.9190653671189</v>
       </c>
       <c r="D64">
-        <v>4.709596491919418</v>
+        <v>-407.9159614121354</v>
       </c>
       <c r="E64">
-        <v>88.52258663716773</v>
+        <v>84.85753478984225</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -3223,16 +3223,16 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>8.958884644033458e-05</v>
+        <v>-1.129263723856998</v>
       </c>
       <c r="C65">
-        <v>7.665168289209479</v>
+        <v>0.9734900571522185</v>
       </c>
       <c r="D65">
-        <v>94.44122514675784</v>
+        <v>6.957041986874554</v>
       </c>
       <c r="E65">
-        <v>-18.8638410719141</v>
+        <v>-4.23887699530463</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -3240,16 +3240,16 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>-0.006821551240845641</v>
+        <v>5.379649467481933</v>
       </c>
       <c r="C66">
-        <v>-3.810042905893718</v>
+        <v>-2.599789483648555</v>
       </c>
       <c r="D66">
-        <v>0.7527396545374416</v>
+        <v>20.55006959486832</v>
       </c>
       <c r="E66">
-        <v>-0.8611645729512546</v>
+        <v>50.21933496961683</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -3257,16 +3257,16 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>-105.4105107998999</v>
+        <v>0.0001858816499949289</v>
       </c>
       <c r="C67">
-        <v>-10.14737568870539</v>
+        <v>0.1900328771182973</v>
       </c>
       <c r="D67">
-        <v>0.0009090395229565825</v>
+        <v>-4.90733453412725</v>
       </c>
       <c r="E67">
-        <v>582.1653126888472</v>
+        <v>138.2095398708787</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -3274,16 +3274,16 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>-118.7183817921721</v>
+        <v>-345.4165317079465</v>
       </c>
       <c r="C68">
-        <v>229.0064731251565</v>
+        <v>469.7622077746478</v>
       </c>
       <c r="D68">
-        <v>-143.3149561248404</v>
+        <v>989.4756979743495</v>
       </c>
       <c r="E68">
-        <v>47.21211887567598</v>
+        <v>0.02139074020954058</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3291,16 +3291,16 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>0.5929105242729569</v>
+        <v>3.78975699880852</v>
       </c>
       <c r="C69">
-        <v>25.88311487104036</v>
+        <v>-14.15897329406591</v>
       </c>
       <c r="D69">
-        <v>-15.00166761479852</v>
+        <v>9.183773161322559</v>
       </c>
       <c r="E69">
-        <v>-0.06118492538806562</v>
+        <v>-0.0001142928292815155</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -3308,16 +3308,16 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>42.88644504209761</v>
+        <v>11.00498054931649</v>
       </c>
       <c r="C70">
-        <v>-228.4206316763506</v>
+        <v>-19.59127285162246</v>
       </c>
       <c r="D70">
-        <v>-18.09843778206482</v>
+        <v>-109.9002975381929</v>
       </c>
       <c r="E70">
-        <v>234.9821663583389</v>
+        <v>212.8483613330122</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -3325,16 +3325,16 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>-1769.852893325502</v>
+        <v>22.57410547285446</v>
       </c>
       <c r="C71">
-        <v>54.48409193340265</v>
+        <v>-300.8378233052749</v>
       </c>
       <c r="D71">
-        <v>1906.830540283095</v>
+        <v>169.9389228556514</v>
       </c>
       <c r="E71">
-        <v>-128.1270319115125</v>
+        <v>163.7288176948173</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -3342,16 +3342,16 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>-10.05510245173335</v>
+        <v>0.02815048874913746</v>
       </c>
       <c r="C72">
-        <v>0.7240759438570701</v>
+        <v>0.8250344505985674</v>
       </c>
       <c r="D72">
-        <v>-5.147311852458037</v>
+        <v>0.8870769294082754</v>
       </c>
       <c r="E72">
-        <v>54.06564212861291</v>
+        <v>-0.2039046095067732</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -3359,16 +3359,16 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>15.78919778567302</v>
+        <v>-33.63941636601875</v>
       </c>
       <c r="C73">
-        <v>-0.0003475123957592375</v>
+        <v>114.3843436467719</v>
       </c>
       <c r="D73">
-        <v>11.14270675242628</v>
+        <v>60.01685038295531</v>
       </c>
       <c r="E73">
-        <v>-24.31091360441618</v>
+        <v>0.3153890297691659</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -3376,16 +3376,16 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>0.3346792244596448</v>
+        <v>0.4711931661231046</v>
       </c>
       <c r="C74">
-        <v>0.6032857107946071</v>
+        <v>-0.2527722945572389</v>
       </c>
       <c r="D74">
-        <v>0.0002257265723005595</v>
+        <v>0.4549177944185917</v>
       </c>
       <c r="E74">
-        <v>1.467356062321545</v>
+        <v>-0.3676153289931013</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -3393,16 +3393,16 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>91.69643404025862</v>
+        <v>1.593431597822788</v>
       </c>
       <c r="C75">
-        <v>-0.5686553812968771</v>
+        <v>0.1067936189554884</v>
       </c>
       <c r="D75">
-        <v>1.817496675291703</v>
+        <v>-1.645761097349525</v>
       </c>
       <c r="E75">
-        <v>558.5564966879476</v>
+        <v>-3.452445879213328</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -3410,16 +3410,16 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>0.000728568155211432</v>
+        <v>182.6048700990076</v>
       </c>
       <c r="C76">
-        <v>0.04899643357038311</v>
+        <v>-214.5918842984699</v>
       </c>
       <c r="D76">
-        <v>3.295459352382721</v>
+        <v>0.05227083228840537</v>
       </c>
       <c r="E76">
-        <v>-0.3327084711869558</v>
+        <v>48.06839951286155</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -3427,16 +3427,16 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>0.09309541085869</v>
+        <v>6.780578827585828</v>
       </c>
       <c r="C77">
-        <v>2.394443849804173</v>
+        <v>53.10279935400346</v>
       </c>
       <c r="D77">
-        <v>-0.01422062422943487</v>
+        <v>-89.19799699470447</v>
       </c>
       <c r="E77">
-        <v>-0.6139999180468607</v>
+        <v>-5.418064916170746e-05</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -3444,16 +3444,16 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>0.3725194491593553</v>
+        <v>-7.024338856346397</v>
       </c>
       <c r="C78">
-        <v>8.517556335889296</v>
+        <v>0.02718557883080579</v>
       </c>
       <c r="D78">
-        <v>58.72967226374491</v>
+        <v>-8.677111733433188</v>
       </c>
       <c r="E78">
-        <v>-0.0290272403757472</v>
+        <v>50.78914495596675</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -3461,16 +3461,16 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>-0.05271123250553737</v>
+        <v>506.4263738138478</v>
       </c>
       <c r="C79">
-        <v>0.8518206843554392</v>
+        <v>0.009856432923102929</v>
       </c>
       <c r="D79">
-        <v>0.01815901178367569</v>
+        <v>-50.8067572282711</v>
       </c>
       <c r="E79">
-        <v>1.183423743837026</v>
+        <v>-374.4794569010843</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -3478,16 +3478,16 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>0.3370539406701368</v>
+        <v>-0.01454358211456377</v>
       </c>
       <c r="C80">
-        <v>0.5167488249576777</v>
+        <v>2.082639046414404</v>
       </c>
       <c r="D80">
-        <v>1.098070042903349</v>
+        <v>-0.9243924483817187</v>
       </c>
       <c r="E80">
-        <v>4.975186333263617e-05</v>
+        <v>0.0835656574897672</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -3495,16 +3495,16 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>-22.34029350823144</v>
+        <v>-0.02031085911926226</v>
       </c>
       <c r="C81">
-        <v>5.61849253459703</v>
+        <v>1.806389550485433</v>
       </c>
       <c r="D81">
-        <v>-31.10791105896249</v>
+        <v>0.05140381848751358</v>
       </c>
       <c r="E81">
-        <v>85.74137512786443</v>
+        <v>-0.3498390505167518</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -3512,16 +3512,16 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>0.2377879244953598</v>
+        <v>0.001283834371515288</v>
       </c>
       <c r="C82">
-        <v>1.284282234981284</v>
+        <v>-0.003240991017287097</v>
       </c>
       <c r="D82">
-        <v>-0.01527376806832602</v>
+        <v>-0.1364012919727462</v>
       </c>
       <c r="E82">
-        <v>0.003778142573693814</v>
+        <v>3.142404931186926</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -3529,16 +3529,16 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>-1.948859198928908</v>
+        <v>2.717744089352437</v>
       </c>
       <c r="C83">
-        <v>2.115530764095711</v>
+        <v>-399.3013360212702</v>
       </c>
       <c r="D83">
-        <v>-1.355854452346214</v>
+        <v>985.2660896650424</v>
       </c>
       <c r="E83">
-        <v>-2.37843378937472</v>
+        <v>0.001784174911776464</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -3546,16 +3546,16 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>0.0007104174131314688</v>
+        <v>-14.9261334715996</v>
       </c>
       <c r="C84">
-        <v>206.4862192723086</v>
+        <v>171.389734142591</v>
       </c>
       <c r="D84">
-        <v>-380.4426108022353</v>
+        <v>195.2696640113178</v>
       </c>
       <c r="E84">
-        <v>472.4026937240578</v>
+        <v>-247.9091957458454</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3563,16 +3563,16 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>0.5805515798153137</v>
+        <v>0.0511577870649263</v>
       </c>
       <c r="C85">
-        <v>0.01112119986386357</v>
+        <v>-4.551092802394006</v>
       </c>
       <c r="D85">
-        <v>1.27868415265031</v>
+        <v>-0.001446185185957441</v>
       </c>
       <c r="E85">
-        <v>-0.1083569971446841</v>
+        <v>12.88406857902384</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -3580,16 +3580,16 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>0.5472327747277821</v>
+        <v>0.0009665027565716638</v>
       </c>
       <c r="C86">
-        <v>-0.2674723842032452</v>
+        <v>8.164622769927657</v>
       </c>
       <c r="D86">
-        <v>0.02774794542883715</v>
+        <v>-12.75772432316601</v>
       </c>
       <c r="E86">
-        <v>2.673468428364311</v>
+        <v>20.2663977922553</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3597,16 +3597,16 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>0.001621358076817679</v>
+        <v>0.1958651225127589</v>
       </c>
       <c r="C87">
-        <v>0.06338895149860865</v>
+        <v>14.7882119539296</v>
       </c>
       <c r="D87">
-        <v>38.49933318938733</v>
+        <v>89.37538336503974</v>
       </c>
       <c r="E87">
-        <v>137.5100696915869</v>
+        <v>0.0011687333836617</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3614,16 +3614,16 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>0.3197940987838814</v>
+        <v>100.1306315513978</v>
       </c>
       <c r="C88">
-        <v>1.955414549653341</v>
+        <v>-80.88392131762961</v>
       </c>
       <c r="D88">
-        <v>0.01900853576900663</v>
+        <v>0.02853311457061318</v>
       </c>
       <c r="E88">
-        <v>-0.5583046429688758</v>
+        <v>158.9412316690822</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3631,16 +3631,16 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>0.268057783930626</v>
+        <v>0.9701727612877885</v>
       </c>
       <c r="C89">
-        <v>1.358085247768835</v>
+        <v>0.0001526136034857522</v>
       </c>
       <c r="D89">
-        <v>0.2808068295007944</v>
+        <v>0.471705621277039</v>
       </c>
       <c r="E89">
-        <v>-0.461774680127487</v>
+        <v>-0.823454373678622</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -3648,16 +3648,16 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>-0.1665059993650514</v>
+        <v>0.01013074160955914</v>
       </c>
       <c r="C90">
-        <v>34.35310617241286</v>
+        <v>-0.03632400693635118</v>
       </c>
       <c r="D90">
-        <v>207.4968847497013</v>
+        <v>0.5195775014473776</v>
       </c>
       <c r="E90">
-        <v>0.05506909606657483</v>
+        <v>2.229649581734686</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3665,16 +3665,16 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>114.5859383749533</v>
+        <v>162.2969211942118</v>
       </c>
       <c r="C91">
-        <v>47.2249157230729</v>
+        <v>-8196.2948899945</v>
       </c>
       <c r="D91">
-        <v>0.03665650618810942</v>
+        <v>9302.909671819289</v>
       </c>
       <c r="E91">
-        <v>0.0270544984408433</v>
+        <v>-1124.007220870428</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -3682,16 +3682,16 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>0.0007394442232824791</v>
+        <v>9.820220398086189</v>
       </c>
       <c r="C92">
-        <v>247.6695734039205</v>
+        <v>-0.6932258102646023</v>
       </c>
       <c r="D92">
-        <v>-282.3341747648203</v>
+        <v>-0.004356122225551405</v>
       </c>
       <c r="E92">
-        <v>444.0010414438415</v>
+        <v>0.03558254202574031</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3699,16 +3699,16 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>0.7102710153974181</v>
+        <v>0.1827091389936324</v>
       </c>
       <c r="C93">
-        <v>1.570538990741098</v>
+        <v>-0.5143070235951334</v>
       </c>
       <c r="D93">
-        <v>-0.008598845202300028</v>
+        <v>-0.001116232792350262</v>
       </c>
       <c r="E93">
-        <v>-5.597899790273085</v>
+        <v>4.209381456796171</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3716,16 +3716,16 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>25.57044826613475</v>
+        <v>-0.0003032042191540002</v>
       </c>
       <c r="C94">
-        <v>-68.35584149473007</v>
+        <v>1.092432874214448</v>
       </c>
       <c r="D94">
-        <v>93.66747336377459</v>
+        <v>63.88745868808736</v>
       </c>
       <c r="E94">
-        <v>53.57799349346095</v>
+        <v>-1.905311258867098</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3733,16 +3733,16 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>-40.06153393764721</v>
+        <v>-35.47885859744615</v>
       </c>
       <c r="C95">
-        <v>24.01187875884207</v>
+        <v>0.0002340907657106247</v>
       </c>
       <c r="D95">
-        <v>116.0257953670772</v>
+        <v>183.6001918189549</v>
       </c>
       <c r="E95">
-        <v>149.5139368066326</v>
+        <v>15.96415727223498</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3750,16 +3750,16 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>0.3540952449517301</v>
+        <v>3.422653382588805</v>
       </c>
       <c r="C96">
-        <v>0.008602595333018373</v>
+        <v>-5.400875262015758</v>
       </c>
       <c r="D96">
-        <v>-0.01903017616385528</v>
+        <v>39.32819191385974</v>
       </c>
       <c r="E96">
-        <v>2.990948617959101</v>
+        <v>-41.71592505463789</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3767,16 +3767,16 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>-0.4694869867498634</v>
+        <v>66.00644909968682</v>
       </c>
       <c r="C97">
-        <v>0.1302087827765247</v>
+        <v>-332.7510128227144</v>
       </c>
       <c r="D97">
-        <v>-0.7618864602492522</v>
+        <v>435.2200876906462</v>
       </c>
       <c r="E97">
-        <v>0.00536103447683556</v>
+        <v>-53.02272414044116</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3784,16 +3784,16 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>1.450866203319622</v>
+        <v>0.3155385484918931</v>
       </c>
       <c r="C98">
-        <v>-1.363789833927983</v>
+        <v>2.164776270464068</v>
       </c>
       <c r="D98">
-        <v>0.04602889330279003</v>
+        <v>-0.7448354411870342</v>
       </c>
       <c r="E98">
-        <v>-0.02665183881089271</v>
+        <v>-1.055835919827216</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3801,16 +3801,16 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>6.489415692342842e-06</v>
+        <v>-18.48700958294695</v>
       </c>
       <c r="C99">
-        <v>0.7035650081437954</v>
+        <v>6.386470328827051</v>
       </c>
       <c r="D99">
-        <v>1.195271404766907</v>
+        <v>32.8735714739678</v>
       </c>
       <c r="E99">
-        <v>62.69770586818203</v>
+        <v>-0.001004113330546308</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3818,16 +3818,16 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>-9.169638437505743</v>
+        <v>420.6410450239988</v>
       </c>
       <c r="C100">
-        <v>0.5564429033841063</v>
+        <v>24.06273964268297</v>
       </c>
       <c r="D100">
-        <v>30.56518103861884</v>
+        <v>-1168.776036741343</v>
       </c>
       <c r="E100">
-        <v>-0.0002413670817984717</v>
+        <v>825.4349313856113</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3835,16 +3835,16 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>0.2793509643741058</v>
+        <v>1.6513126780955</v>
       </c>
       <c r="C101">
-        <v>0.002033348465485779</v>
+        <v>-3.875745442712192</v>
       </c>
       <c r="D101">
-        <v>-0.03596177812192499</v>
+        <v>-0.0025322978545793</v>
       </c>
       <c r="E101">
-        <v>3.844650064725778</v>
+        <v>0.2357720873870734</v>
       </c>
     </row>
   </sheetData>
@@ -3870,7 +3870,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4.358143085047244</v>
+        <v>4.38022493854278</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3878,7 +3878,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4.38001103691405</v>
+        <v>4.591889678863524</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3886,7 +3886,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>4.376698118154739</v>
+        <v>4.368477357402996</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3894,7 +3894,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>4.367685415052975</v>
+        <v>4.403057427820766</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3902,7 +3902,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-4.846148291180033</v>
+        <v>4.3016308058825</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3910,7 +3910,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>4.356968765188188</v>
+        <v>4.353864624088716</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3918,7 +3918,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>4.410512632227562</v>
+        <v>4.360995439844002</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3926,7 +3926,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>4.355515010836472</v>
+        <v>4.632207501788232</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>4.461176092193134</v>
+        <v>4.35599314449363</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3942,7 +3942,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>4.353900769563737</v>
+        <v>4.431681737949841</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3950,7 +3950,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-0.1425669078251133</v>
+        <v>4.356260113476965</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3958,7 +3958,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>4.353869715671738</v>
+        <v>4.391992792992341</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3966,7 +3966,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>4.375784619275459</v>
+        <v>5.74942562776631</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3974,7 +3974,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>4.636998509790963</v>
+        <v>4.353820266191804</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3982,7 +3982,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>4.353931916073556</v>
+        <v>4.849031313818731</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3990,7 +3990,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>4.513756837876556</v>
+        <v>4.370462219753874</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3998,7 +3998,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>4.355362752407631</v>
+        <v>4.360729827905221</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4006,7 +4006,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>4.355632373509996</v>
+        <v>4.367359981550271</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4014,7 +4014,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>-1000</v>
+        <v>4.355926351200779</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4022,7 +4022,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>6.882834788523585</v>
+        <v>4.357004287072712</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4030,7 +4030,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>4.355920969272503</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4038,7 +4038,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>4.353917594197952</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -4046,7 +4046,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>4.379717745629023</v>
+        <v>4.356916563753146</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -4054,7 +4054,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>4.357153072115251</v>
+        <v>4.460833516788327</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -4062,7 +4062,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>4.3558803551823</v>
+        <v>4.354765906086154</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -4070,7 +4070,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>4.353988233153366</v>
+        <v>4.371362896355964</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -4078,7 +4078,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>4.3552525155391</v>
+        <v>4.355968472557652</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -4086,7 +4086,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>4.356699888965444</v>
+        <v>4.353707929470538</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -4094,7 +4094,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>4.355891179533458</v>
+        <v>4.355579008451969</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -4102,7 +4102,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>4.358677063703308</v>
+        <v>4.364024229225706</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -4110,7 +4110,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>4.369305844020857</v>
+        <v>4.355818903912269</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -4118,7 +4118,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>-1000</v>
+        <v>4.353662138014442</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -4126,7 +4126,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>-1000</v>
+        <v>4.355285082868471</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -4134,7 +4134,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>4.386819128619779</v>
+        <v>4.577043894573354</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -4142,7 +4142,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>4.355557487915684</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -4150,7 +4150,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>4.374213425174872</v>
+        <v>4.355369250924604</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -4158,7 +4158,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>4.375453986454286</v>
+        <v>4.358140405251231</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -4166,7 +4166,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>4.359877223225308</v>
+        <v>4.558268509042314</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -4174,7 +4174,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>4.877953359616614</v>
+        <v>4.469597323888056</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -4182,7 +4182,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>4.354054096912488</v>
+        <v>4.355421483559979</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -4190,7 +4190,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>4.356076159423749</v>
+        <v>4.441709965065084</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -4198,7 +4198,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>4.367308138633291</v>
+        <v>4.405977837330247</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -4206,7 +4206,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>4.354210797271428</v>
+        <v>4.388817554400902</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -4214,7 +4214,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>4.354064572751895</v>
+        <v>4.353852785190355</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -4222,7 +4222,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>4.410174289133643</v>
+        <v>4.353957525117924</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -4230,7 +4230,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>4.361513693410046</v>
+        <v>4.471530155691297</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -4238,7 +4238,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>4.325630469470958</v>
+        <v>4.364813730076051</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -4246,7 +4246,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>4.37403357490178</v>
+        <v>4.353674310939766</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -4254,7 +4254,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>4.353855869305775</v>
+        <v>4.35567484706745</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -4262,7 +4262,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>4.641950442799105</v>
+        <v>4.542165030532784</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -4270,7 +4270,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>4.353848088611517</v>
+        <v>4.385493292226637</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -4278,7 +4278,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>4.356747146803849</v>
+        <v>4.358416101003812</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -4286,7 +4286,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>4.494713583364763</v>
+        <v>4.354322482717333</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -4294,7 +4294,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>4.3835398397589</v>
+        <v>4.461116256526705</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -4302,7 +4302,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>-1.323201695305478</v>
+        <v>4.36904830983603</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -4310,7 +4310,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>4.426490228885569</v>
+        <v>4.447402279503834</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -4318,7 +4318,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>4.479735543252882</v>
+        <v>4.361123199653278</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -4326,7 +4326,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>-1000</v>
+        <v>4.35537925831774</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -4334,7 +4334,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>4.353843224505368</v>
+        <v>4.360457348839439</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -4342,7 +4342,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>4.358996685942175</v>
+        <v>4.353703518967109</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -4350,7 +4350,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>4.375274144078581</v>
+        <v>4.380711345351958</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -4358,7 +4358,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>4.377135733313763</v>
+        <v>4.358739146266929</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -4366,7 +4366,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>4.353851353439868</v>
+        <v>-20.55900642487663</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -4374,7 +4374,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>4.356052244956992</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -4382,7 +4382,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>4.373812928428302</v>
+        <v>4.354102017697073</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -4390,7 +4390,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>4.361509905146871</v>
+        <v>4.356445642734474</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -4398,7 +4398,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>4.359186356242994</v>
+        <v>4.356701821078445</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -4406,23 +4406,20 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>4.361180681214339</v>
+        <v>4.368297572270473</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
-      <c r="B70">
-        <v>4.3651076617329</v>
-      </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71">
-        <v>4.373625480195653</v>
+        <v>4.354512215354276</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -4430,7 +4427,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>4.356227649236422</v>
+        <v>4.437094396698693</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -4438,7 +4435,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>4.362806242876459</v>
+        <v>4.355789606936389</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -4446,7 +4443,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>4.624813623285485</v>
+        <v>4.418763633978785</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -4454,7 +4451,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>4.354218165535372</v>
+        <v>6.516995506412066</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -4462,7 +4459,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>4.440689097219204</v>
+        <v>4.355433165429133</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -4470,7 +4467,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>4.429698601435743</v>
+        <v>4.355295902663592</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -4478,7 +4475,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>4.355367582331654</v>
+        <v>4.359818815260152</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -4486,7 +4483,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>4.9470372045972</v>
+        <v>4.356619007221923</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -4494,7 +4491,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>5.273601714692957</v>
+        <v>4.392253947642615</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -4502,7 +4499,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>4.353810884320795</v>
+        <v>4.428358776585025</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -4510,7 +4507,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>4.504988447300544</v>
+        <v>4.447725702710843</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -4518,7 +4515,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>4.395071532895843</v>
+        <v>4.361730503871188</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -4526,7 +4523,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>4.360896103654278</v>
+        <v>4.373493741412496</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -4534,7 +4531,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>4.447977928677445</v>
+        <v>4.368220598673471</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -4542,7 +4539,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>4.482553646132308</v>
+        <v>4.38300841112812</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -4550,7 +4547,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>4.356518429736566</v>
+        <v>4.35592607910851</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -4558,7 +4555,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>4.426005740395213</v>
+        <v>4.356886900165813</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -4566,7 +4563,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>4.431373460519025</v>
+        <v>4.424730002853468</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -4574,7 +4571,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>4.356957479533466</v>
+        <v>4.481373979666277</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -4582,7 +4579,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>4.356462523449128</v>
+        <v>4.398071204196576</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -4590,7 +4587,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>4.358010905188344</v>
+        <v>4.392171993474991</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -4598,7 +4595,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>4.3709646009473</v>
+        <v>4.397933435168736</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -4606,7 +4603,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>4.353860038281866</v>
+        <v>4.356039647576161</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -4614,7 +4611,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>4.353937912426574</v>
+        <v>4.353825810145267</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -4622,7 +4619,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>4.498842260164802</v>
+        <v>4.452665893329941</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -4630,7 +4627,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>4.424462614196127</v>
+        <v>4.374860778681306</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -4638,7 +4635,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>4.39407855148295</v>
+        <v>6.322610971509818</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -4646,7 +4643,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>4.355350724842692</v>
+        <v>4.357524755413094</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -4654,7 +4651,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>4.358803480244189</v>
+        <v>4.354190517655127</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -4662,7 +4659,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>4.448179676665831</v>
+        <v>4.373575962516218</v>
       </c>
     </row>
   </sheetData>
